--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,156 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>34900</v>
+        <v>47800</v>
       </c>
       <c r="E8" s="3">
-        <v>36300</v>
+        <v>35000</v>
       </c>
       <c r="F8" s="3">
-        <v>23800</v>
+        <v>36400</v>
       </c>
       <c r="G8" s="3">
-        <v>93300</v>
+        <v>23900</v>
       </c>
       <c r="H8" s="3">
-        <v>28800</v>
+        <v>93700</v>
       </c>
       <c r="I8" s="3">
-        <v>24100</v>
+        <v>28900</v>
       </c>
       <c r="J8" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K8" s="3">
         <v>98200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>28400</v>
+        <v>39200</v>
       </c>
       <c r="E9" s="3">
-        <v>29700</v>
+        <v>28500</v>
       </c>
       <c r="F9" s="3">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="G9" s="3">
-        <v>73900</v>
+        <v>19200</v>
       </c>
       <c r="H9" s="3">
-        <v>22100</v>
+        <v>74200</v>
       </c>
       <c r="I9" s="3">
-        <v>18100</v>
+        <v>22200</v>
       </c>
       <c r="J9" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K9" s="3">
         <v>73100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E10" s="3">
         <v>6500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6700</v>
       </c>
-      <c r="I10" s="3">
-        <v>5900</v>
-      </c>
       <c r="J10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K10" s="3">
         <v>25200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,37 +888,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40100</v>
+        <v>62100</v>
       </c>
       <c r="E17" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="F17" s="3">
-        <v>26500</v>
+        <v>42400</v>
       </c>
       <c r="G17" s="3">
-        <v>109900</v>
+        <v>26700</v>
       </c>
       <c r="H17" s="3">
-        <v>34100</v>
+        <v>110400</v>
       </c>
       <c r="I17" s="3">
-        <v>29700</v>
+        <v>34300</v>
       </c>
       <c r="J17" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K17" s="3">
         <v>123200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,133 +1043,146 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-25800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-22400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1153,11 +1198,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-6400</v>
-      </c>
       <c r="F26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-22400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10300</v>
+        <v>17200</v>
       </c>
       <c r="E27" s="3">
-        <v>-13700</v>
+        <v>-10400</v>
       </c>
       <c r="F27" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-11700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-46900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-19500</v>
+        <v>-47100</v>
       </c>
       <c r="I27" s="3">
-        <v>-22600</v>
+        <v>-19600</v>
       </c>
       <c r="J27" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-72900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10300</v>
+        <v>17200</v>
       </c>
       <c r="E33" s="3">
-        <v>-13700</v>
+        <v>-10400</v>
       </c>
       <c r="F33" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-11700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-46900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-19500</v>
+        <v>-47100</v>
       </c>
       <c r="I33" s="3">
-        <v>-22600</v>
+        <v>-19600</v>
       </c>
       <c r="J33" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-72900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10300</v>
+        <v>17200</v>
       </c>
       <c r="E35" s="3">
-        <v>-13700</v>
+        <v>-10400</v>
       </c>
       <c r="F35" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-11700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-46900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-19500</v>
+        <v>-47100</v>
       </c>
       <c r="I35" s="3">
-        <v>-22600</v>
+        <v>-19600</v>
       </c>
       <c r="J35" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-72900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,25 +1620,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19400</v>
+        <v>55600</v>
       </c>
       <c r="E41" s="3">
-        <v>48600</v>
+        <v>19500</v>
       </c>
       <c r="F41" s="3">
-        <v>13400</v>
+        <v>48800</v>
       </c>
       <c r="G41" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>7100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1564,54 +1650,60 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>17000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E43" s="3">
         <v>6900</v>
       </c>
-      <c r="E43" s="3">
-        <v>20300</v>
-      </c>
       <c r="F43" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G43" s="3">
         <v>16200</v>
       </c>
-      <c r="G43" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>17500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1622,26 +1714,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10700</v>
+        <v>13100</v>
       </c>
       <c r="E44" s="3">
-        <v>9500</v>
+        <v>10800</v>
       </c>
       <c r="F44" s="3">
         <v>9600</v>
       </c>
       <c r="G44" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H44" s="3">
         <v>9800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,25 +1746,28 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24000</v>
+        <v>20200</v>
       </c>
       <c r="E45" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
-        <v>3200</v>
-      </c>
       <c r="G45" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1680,25 +1778,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61000</v>
+        <v>112600</v>
       </c>
       <c r="E46" s="3">
-        <v>86000</v>
+        <v>61300</v>
       </c>
       <c r="F46" s="3">
-        <v>42500</v>
+        <v>86400</v>
       </c>
       <c r="G46" s="3">
-        <v>37600</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>42600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>37800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1709,26 +1810,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="E47" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="F47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G47" s="3">
         <v>11200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,25 +1842,28 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="E48" s="3">
         <v>6300</v>
       </c>
       <c r="F48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>3200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1767,26 +1874,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="E49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F49" s="3">
         <v>11100</v>
       </c>
-      <c r="F49" s="3">
-        <v>11200</v>
-      </c>
       <c r="G49" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H49" s="3">
         <v>11400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,8 +1906,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,26 +1970,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1883,8 +2002,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,25 +2034,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>95900</v>
+        <v>141300</v>
       </c>
       <c r="E54" s="3">
-        <v>117200</v>
+        <v>96300</v>
       </c>
       <c r="F54" s="3">
-        <v>69500</v>
+        <v>117800</v>
       </c>
       <c r="G54" s="3">
-        <v>64000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>69900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>64200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1941,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,26 +2096,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,26 +2126,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>9900</v>
       </c>
-      <c r="E58" s="3">
-        <v>19600</v>
-      </c>
       <c r="F58" s="3">
-        <v>23000</v>
+        <v>19700</v>
       </c>
       <c r="G58" s="3">
+        <v>23100</v>
+      </c>
+      <c r="H58" s="3">
         <v>21600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2025,26 +2158,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
-        <v>11800</v>
-      </c>
       <c r="F59" s="3">
-        <v>11000</v>
+        <v>11900</v>
       </c>
       <c r="G59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H59" s="3">
         <v>15300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,25 +2190,28 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31700</v>
+        <v>29100</v>
       </c>
       <c r="E60" s="3">
-        <v>45200</v>
+        <v>31900</v>
       </c>
       <c r="F60" s="3">
-        <v>47400</v>
+        <v>45400</v>
       </c>
       <c r="G60" s="3">
-        <v>51300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>47700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>51500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2083,25 +2222,28 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>79800</v>
+        <v>76100</v>
       </c>
       <c r="E61" s="3">
-        <v>34700</v>
+        <v>80100</v>
       </c>
       <c r="F61" s="3">
-        <v>35100</v>
+        <v>34800</v>
       </c>
       <c r="G61" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>36500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2112,26 +2254,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E62" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="F62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,25 +2382,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>123300</v>
+        <v>117800</v>
       </c>
       <c r="E66" s="3">
+        <v>123900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G66" s="3">
         <v>92000</v>
       </c>
-      <c r="F66" s="3">
-        <v>91600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>96800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>97200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2257,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,25 +2492,28 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>464000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>358200</v>
+        <v>466000</v>
       </c>
       <c r="F70" s="3">
-        <v>297000</v>
+        <v>359800</v>
       </c>
       <c r="G70" s="3">
-        <v>260300</v>
+        <v>298300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>261400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2357,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,25 +2556,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-430300</v>
+        <v>-415000</v>
       </c>
       <c r="E72" s="3">
-        <v>-320100</v>
+        <v>-432200</v>
       </c>
       <c r="F72" s="3">
-        <v>-306400</v>
+        <v>-321500</v>
       </c>
       <c r="G72" s="3">
-        <v>-294700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-307700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-296000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2415,8 +2588,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,25 +2684,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-491400</v>
+        <v>23500</v>
       </c>
       <c r="E76" s="3">
-        <v>-333000</v>
+        <v>-493600</v>
       </c>
       <c r="F76" s="3">
-        <v>-319100</v>
+        <v>-334400</v>
       </c>
       <c r="G76" s="3">
-        <v>-293200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-320500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-294400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2531,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10300</v>
+        <v>17200</v>
       </c>
       <c r="E81" s="3">
-        <v>-13700</v>
+        <v>-10400</v>
       </c>
       <c r="F81" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-11700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-46900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-19500</v>
+        <v>-47100</v>
       </c>
       <c r="I81" s="3">
-        <v>-22600</v>
+        <v>-19600</v>
       </c>
       <c r="J81" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-72900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5900</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,28 +3339,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>49400</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
+        <v>49600</v>
+      </c>
+      <c r="G100" s="3">
         <v>11300</v>
       </c>
-      <c r="G100" s="3">
-        <v>33600</v>
-      </c>
       <c r="H100" s="3">
-        <v>12100</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>33800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>12200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3126,62 +3371,71 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>35200</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
+        <v>35300</v>
+      </c>
+      <c r="G102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>47800</v>
+        <v>48800</v>
       </c>
       <c r="E8" s="3">
-        <v>35000</v>
+        <v>35800</v>
       </c>
       <c r="F8" s="3">
-        <v>36400</v>
+        <v>37200</v>
       </c>
       <c r="G8" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="H8" s="3">
-        <v>93700</v>
+        <v>95700</v>
       </c>
       <c r="I8" s="3">
-        <v>28900</v>
+        <v>29500</v>
       </c>
       <c r="J8" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="K8" s="3">
         <v>98200</v>
@@ -755,25 +755,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>39200</v>
+        <v>40100</v>
       </c>
       <c r="E9" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="F9" s="3">
-        <v>29800</v>
+        <v>30400</v>
       </c>
       <c r="G9" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="H9" s="3">
-        <v>74200</v>
+        <v>75800</v>
       </c>
       <c r="I9" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="J9" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="K9" s="3">
         <v>73100</v>
@@ -787,25 +787,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="E10" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="F10" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G10" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="3">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="I10" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="J10" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K10" s="3">
         <v>25200</v>
@@ -903,10 +903,10 @@
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G14" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
@@ -972,25 +972,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62100</v>
+        <v>63400</v>
       </c>
       <c r="E17" s="3">
-        <v>40200</v>
+        <v>41100</v>
       </c>
       <c r="F17" s="3">
-        <v>42400</v>
+        <v>43300</v>
       </c>
       <c r="G17" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="H17" s="3">
-        <v>110400</v>
+        <v>112700</v>
       </c>
       <c r="I17" s="3">
-        <v>34300</v>
+        <v>35000</v>
       </c>
       <c r="J17" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="K17" s="3">
         <v>123200</v>
@@ -1004,25 +1004,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="E18" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F18" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="G18" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H18" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="I18" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="J18" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="K18" s="3">
         <v>-25000</v>
@@ -1088,19 +1088,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G21" s="3">
         <v>-1400</v>
       </c>
       <c r="H21" s="3">
-        <v>-15700</v>
+        <v>-16100</v>
       </c>
       <c r="I21" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="J21" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="K21" s="3">
         <v>-25800</v>
@@ -1123,16 +1123,16 @@
         <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H22" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1146,25 +1146,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="E23" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="F23" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="G23" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H23" s="3">
-        <v>-22500</v>
+        <v>-23000</v>
       </c>
       <c r="I23" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="J23" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="K23" s="3">
         <v>-27500</v>
@@ -1242,25 +1242,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="E26" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="F26" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="G26" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H26" s="3">
-        <v>-22500</v>
+        <v>-23000</v>
       </c>
       <c r="I26" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="J26" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="K26" s="3">
         <v>-27400</v>
@@ -1274,25 +1274,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="E27" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="F27" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="G27" s="3">
-        <v>-11700</v>
+        <v>-12000</v>
       </c>
       <c r="H27" s="3">
-        <v>-47100</v>
+        <v>-48100</v>
       </c>
       <c r="I27" s="3">
-        <v>-19600</v>
+        <v>-20000</v>
       </c>
       <c r="J27" s="3">
-        <v>-22700</v>
+        <v>-23100</v>
       </c>
       <c r="K27" s="3">
         <v>-72900</v>
@@ -1466,25 +1466,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="E33" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="F33" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="G33" s="3">
-        <v>-11700</v>
+        <v>-12000</v>
       </c>
       <c r="H33" s="3">
-        <v>-47100</v>
+        <v>-48100</v>
       </c>
       <c r="I33" s="3">
-        <v>-19600</v>
+        <v>-20000</v>
       </c>
       <c r="J33" s="3">
-        <v>-22700</v>
+        <v>-23100</v>
       </c>
       <c r="K33" s="3">
         <v>-72900</v>
@@ -1530,25 +1530,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="E35" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="F35" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="G35" s="3">
-        <v>-11700</v>
+        <v>-12000</v>
       </c>
       <c r="H35" s="3">
-        <v>-47100</v>
+        <v>-48100</v>
       </c>
       <c r="I35" s="3">
-        <v>-19600</v>
+        <v>-20000</v>
       </c>
       <c r="J35" s="3">
-        <v>-22700</v>
+        <v>-23100</v>
       </c>
       <c r="K35" s="3">
         <v>-72900</v>
@@ -1627,19 +1627,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55600</v>
+        <v>56800</v>
       </c>
       <c r="E41" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="F41" s="3">
-        <v>48800</v>
+        <v>49900</v>
       </c>
       <c r="G41" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="H41" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1659,7 +1659,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1691,19 +1691,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="E43" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F43" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="G43" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="H43" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1723,19 +1723,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="E44" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="F44" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G44" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="H44" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1755,13 +1755,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="E45" s="3">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="F45" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="G45" s="3">
         <v>3300</v>
@@ -1787,19 +1787,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>112600</v>
+        <v>115000</v>
       </c>
       <c r="E46" s="3">
-        <v>61300</v>
+        <v>62600</v>
       </c>
       <c r="F46" s="3">
-        <v>86400</v>
+        <v>88200</v>
       </c>
       <c r="G46" s="3">
-        <v>42600</v>
+        <v>43500</v>
       </c>
       <c r="H46" s="3">
-        <v>37800</v>
+        <v>38600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1819,19 +1819,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F47" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G47" s="3">
         <v>11500</v>
       </c>
-      <c r="E47" s="3">
-        <v>11500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>11200</v>
-      </c>
       <c r="H47" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F48" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G48" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H48" s="3">
         <v>3200</v>
@@ -1883,19 +1883,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="E49" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="F49" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="G49" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="H49" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1982,16 +1982,16 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="F52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2043,19 +2043,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>141300</v>
+        <v>144300</v>
       </c>
       <c r="E54" s="3">
-        <v>96300</v>
+        <v>98300</v>
       </c>
       <c r="F54" s="3">
-        <v>117800</v>
+        <v>120200</v>
       </c>
       <c r="G54" s="3">
-        <v>69900</v>
+        <v>71300</v>
       </c>
       <c r="H54" s="3">
-        <v>64200</v>
+        <v>65600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2103,19 +2103,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="E57" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="F57" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="G57" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="H57" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="E58" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="F58" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="G58" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="H58" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2167,19 +2167,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E59" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F59" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="G59" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="H59" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2199,19 +2199,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29100</v>
+        <v>29700</v>
       </c>
       <c r="E60" s="3">
-        <v>31900</v>
+        <v>32500</v>
       </c>
       <c r="F60" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="G60" s="3">
-        <v>47700</v>
+        <v>48700</v>
       </c>
       <c r="H60" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2231,19 +2231,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76100</v>
+        <v>77700</v>
       </c>
       <c r="E61" s="3">
-        <v>80100</v>
+        <v>81800</v>
       </c>
       <c r="F61" s="3">
-        <v>34800</v>
+        <v>35600</v>
       </c>
       <c r="G61" s="3">
-        <v>35200</v>
+        <v>36000</v>
       </c>
       <c r="H61" s="3">
-        <v>36500</v>
+        <v>37300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E62" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F62" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G62" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H62" s="3">
         <v>2500</v>
@@ -2391,19 +2391,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>117800</v>
+        <v>120300</v>
       </c>
       <c r="E66" s="3">
-        <v>123900</v>
+        <v>126500</v>
       </c>
       <c r="F66" s="3">
-        <v>92400</v>
+        <v>94400</v>
       </c>
       <c r="G66" s="3">
-        <v>92000</v>
+        <v>93900</v>
       </c>
       <c r="H66" s="3">
-        <v>97200</v>
+        <v>99300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2504,16 +2504,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>466000</v>
+        <v>475800</v>
       </c>
       <c r="F70" s="3">
-        <v>359800</v>
+        <v>367400</v>
       </c>
       <c r="G70" s="3">
-        <v>298300</v>
+        <v>304600</v>
       </c>
       <c r="H70" s="3">
-        <v>261400</v>
+        <v>267000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2565,19 +2565,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-415000</v>
+        <v>-423700</v>
       </c>
       <c r="E72" s="3">
-        <v>-432200</v>
+        <v>-441300</v>
       </c>
       <c r="F72" s="3">
-        <v>-321500</v>
+        <v>-328300</v>
       </c>
       <c r="G72" s="3">
-        <v>-307700</v>
+        <v>-314200</v>
       </c>
       <c r="H72" s="3">
-        <v>-296000</v>
+        <v>-302200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2693,19 +2693,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="E76" s="3">
-        <v>-493600</v>
+        <v>-504000</v>
       </c>
       <c r="F76" s="3">
-        <v>-334400</v>
+        <v>-341500</v>
       </c>
       <c r="G76" s="3">
-        <v>-320500</v>
+        <v>-327200</v>
       </c>
       <c r="H76" s="3">
-        <v>-294400</v>
+        <v>-300700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2794,25 +2794,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="E81" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="F81" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="G81" s="3">
-        <v>-11700</v>
+        <v>-12000</v>
       </c>
       <c r="H81" s="3">
-        <v>-47100</v>
+        <v>-48100</v>
       </c>
       <c r="I81" s="3">
-        <v>-19600</v>
+        <v>-20000</v>
       </c>
       <c r="J81" s="3">
-        <v>-22700</v>
+        <v>-23100</v>
       </c>
       <c r="K81" s="3">
         <v>-72900</v>
@@ -3038,16 +3038,16 @@
         <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="G89" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="H89" s="3">
-        <v>-20100</v>
+        <v>-20600</v>
       </c>
       <c r="I89" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3180,16 +3180,16 @@
         <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3354,16 +3354,16 @@
         <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>49600</v>
+        <v>50700</v>
       </c>
       <c r="G100" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="H100" s="3">
-        <v>33800</v>
+        <v>34500</v>
       </c>
       <c r="I100" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3418,16 +3418,16 @@
         <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>35300</v>
+        <v>36100</v>
       </c>
       <c r="G102" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H102" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I102" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,182 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>48800</v>
+        <v>49600</v>
       </c>
       <c r="E8" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="F8" s="3">
-        <v>37200</v>
+        <v>48200</v>
       </c>
       <c r="G8" s="3">
-        <v>24400</v>
+        <v>35300</v>
       </c>
       <c r="H8" s="3">
-        <v>95700</v>
+        <v>36700</v>
       </c>
       <c r="I8" s="3">
+        <v>24100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K8" s="3">
         <v>29500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>24700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>98200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40100</v>
+        <v>40900</v>
       </c>
       <c r="E9" s="3">
-        <v>29100</v>
+        <v>28500</v>
       </c>
       <c r="F9" s="3">
-        <v>30400</v>
+        <v>39500</v>
       </c>
       <c r="G9" s="3">
-        <v>19600</v>
+        <v>28700</v>
       </c>
       <c r="H9" s="3">
-        <v>75800</v>
+        <v>30100</v>
       </c>
       <c r="I9" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K9" s="3">
         <v>22600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>18600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>73100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H10" s="3">
         <v>6700</v>
       </c>
-      <c r="F10" s="3">
-        <v>6700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>20000</v>
-      </c>
       <c r="I10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>25200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +853,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +887,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +925,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,29 +942,35 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +1001,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +1018,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>63400</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>41100</v>
+        <v>41000</v>
       </c>
       <c r="F17" s="3">
-        <v>43300</v>
+        <v>62600</v>
       </c>
       <c r="G17" s="3">
-        <v>27200</v>
+        <v>40600</v>
       </c>
       <c r="H17" s="3">
-        <v>112700</v>
+        <v>42800</v>
       </c>
       <c r="I17" s="3">
+        <v>26900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K17" s="3">
         <v>35000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>30500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>123200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-14600</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-25000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,40 +1110,48 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1087,108 +1161,126 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-25800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1000</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="3">
-        <v>6500</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12900</v>
+        <v>-6000</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-6400</v>
       </c>
       <c r="F23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-27500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1201,11 +1293,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1334,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-12800</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-27400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>17600</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>-10600</v>
+        <v>-6300</v>
       </c>
       <c r="F27" s="3">
-        <v>-14100</v>
+        <v>17400</v>
       </c>
       <c r="G27" s="3">
-        <v>-12000</v>
+        <v>-10500</v>
       </c>
       <c r="H27" s="3">
-        <v>-48100</v>
+        <v>-13900</v>
       </c>
       <c r="I27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-23100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-72900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1448,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1486,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1524,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1562,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>17600</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>-10600</v>
+        <v>-6300</v>
       </c>
       <c r="F33" s="3">
-        <v>-14100</v>
+        <v>17400</v>
       </c>
       <c r="G33" s="3">
-        <v>-12000</v>
+        <v>-10500</v>
       </c>
       <c r="H33" s="3">
-        <v>-48100</v>
+        <v>-13900</v>
       </c>
       <c r="I33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-23100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-72900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1676,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>17600</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>-10600</v>
+        <v>-6300</v>
       </c>
       <c r="F35" s="3">
-        <v>-14100</v>
+        <v>17400</v>
       </c>
       <c r="G35" s="3">
-        <v>-12000</v>
+        <v>-10500</v>
       </c>
       <c r="H35" s="3">
-        <v>-48100</v>
+        <v>-13900</v>
       </c>
       <c r="I35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-23100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-72900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1777,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,28 +1793,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>56800</v>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>19900</v>
+        <v>45000</v>
       </c>
       <c r="F41" s="3">
-        <v>49900</v>
+        <v>56000</v>
       </c>
       <c r="G41" s="3">
-        <v>13800</v>
+        <v>19700</v>
       </c>
       <c r="H41" s="3">
-        <v>7200</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>49200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>13600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1827,25 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>17400</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>17200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1679,34 +1859,40 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>6900</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>7100</v>
+        <v>8800</v>
       </c>
       <c r="F43" s="3">
-        <v>20800</v>
+        <v>6800</v>
       </c>
       <c r="G43" s="3">
-        <v>16600</v>
+        <v>7000</v>
       </c>
       <c r="H43" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>20600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>16400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1717,28 +1903,34 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>13400</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>11000</v>
+        <v>14100</v>
       </c>
       <c r="F44" s="3">
-        <v>9800</v>
+        <v>13200</v>
       </c>
       <c r="G44" s="3">
-        <v>9800</v>
+        <v>10900</v>
       </c>
       <c r="H44" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>9600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>9700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1749,29 +1941,35 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>20600</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>24600</v>
+        <v>13100</v>
       </c>
       <c r="F45" s="3">
-        <v>7800</v>
+        <v>20300</v>
       </c>
       <c r="G45" s="3">
+        <v>24300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,28 +1979,34 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>115000</v>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>62600</v>
+        <v>107000</v>
       </c>
       <c r="F46" s="3">
-        <v>88200</v>
+        <v>113500</v>
       </c>
       <c r="G46" s="3">
-        <v>43500</v>
+        <v>61800</v>
       </c>
       <c r="H46" s="3">
-        <v>38600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>87100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>43000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1813,29 +2017,35 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>11700</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="F47" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="G47" s="3">
         <v>11500</v>
       </c>
       <c r="H47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I47" s="3">
         <v>11300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,29 +2055,35 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>6000</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H48" s="3">
         <v>6400</v>
       </c>
-      <c r="F48" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,28 +2093,34 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G49" s="3">
         <v>11000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>11200</v>
       </c>
-      <c r="F49" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>11400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1909,8 +2131,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2169,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,29 +2207,35 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
-        <v>900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,8 +2245,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,28 +2283,34 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>144300</v>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>98300</v>
+        <v>135600</v>
       </c>
       <c r="F54" s="3">
-        <v>120200</v>
+        <v>142400</v>
       </c>
       <c r="G54" s="3">
-        <v>71300</v>
+        <v>97000</v>
       </c>
       <c r="H54" s="3">
-        <v>65600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>118700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>70400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2069,8 +2321,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2341,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,28 +2357,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>17300</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>19200</v>
+        <v>15700</v>
       </c>
       <c r="F57" s="3">
-        <v>14100</v>
+        <v>17100</v>
       </c>
       <c r="G57" s="3">
-        <v>13700</v>
+        <v>19000</v>
       </c>
       <c r="H57" s="3">
-        <v>14800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>13600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2129,28 +2391,34 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>7300</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>10100</v>
+        <v>13300</v>
       </c>
       <c r="F58" s="3">
-        <v>20100</v>
+        <v>7200</v>
       </c>
       <c r="G58" s="3">
-        <v>23600</v>
+        <v>10000</v>
       </c>
       <c r="H58" s="3">
-        <v>22100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>19900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>23300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2161,28 +2429,34 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>5100</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>11300</v>
-      </c>
       <c r="H59" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>11100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2193,28 +2467,34 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>29700</v>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>32500</v>
+        <v>33400</v>
       </c>
       <c r="F60" s="3">
-        <v>46400</v>
+        <v>29300</v>
       </c>
       <c r="G60" s="3">
-        <v>48700</v>
+        <v>32100</v>
       </c>
       <c r="H60" s="3">
-        <v>52600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>45800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>48000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2225,28 +2505,34 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>81800</v>
+        <v>77200</v>
       </c>
       <c r="F61" s="3">
-        <v>35600</v>
+        <v>76700</v>
       </c>
       <c r="G61" s="3">
-        <v>36000</v>
+        <v>80700</v>
       </c>
       <c r="H61" s="3">
-        <v>37300</v>
+        <v>35100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2257,29 +2543,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>4800</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="F62" s="3">
-        <v>5600</v>
+        <v>4700</v>
       </c>
       <c r="G62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2581,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2619,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2657,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,28 +2695,34 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>120300</v>
+      <c r="D66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>126500</v>
+        <v>122900</v>
       </c>
       <c r="F66" s="3">
-        <v>94400</v>
+        <v>118700</v>
       </c>
       <c r="G66" s="3">
-        <v>93900</v>
+        <v>124800</v>
       </c>
       <c r="H66" s="3">
-        <v>99300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>93200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>92700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2417,8 +2733,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2753,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2787,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2825,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2504,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>475800</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>367400</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>304600</v>
+        <v>469600</v>
       </c>
       <c r="H70" s="3">
-        <v>267000</v>
+        <v>362600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>300700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2527,8 +2863,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,28 +2901,34 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-423700</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-441300</v>
+        <v>-424500</v>
       </c>
       <c r="F72" s="3">
-        <v>-328300</v>
+        <v>-418200</v>
       </c>
       <c r="G72" s="3">
-        <v>-314200</v>
+        <v>-435600</v>
       </c>
       <c r="H72" s="3">
-        <v>-302200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-324000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-310100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2591,8 +2939,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2977,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3015,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,28 +3053,34 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>24000</v>
+      <c r="D76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>-504000</v>
+        <v>12700</v>
       </c>
       <c r="F76" s="3">
-        <v>-341500</v>
+        <v>23700</v>
       </c>
       <c r="G76" s="3">
-        <v>-327200</v>
+        <v>-497400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-337000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-323000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2719,8 +3091,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +3129,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>17600</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>-10600</v>
+        <v>-6300</v>
       </c>
       <c r="F81" s="3">
-        <v>-14100</v>
+        <v>17400</v>
       </c>
       <c r="G81" s="3">
-        <v>-12000</v>
+        <v>-10500</v>
       </c>
       <c r="H81" s="3">
-        <v>-48100</v>
+        <v>-13900</v>
       </c>
       <c r="I81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-23100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-72900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3230,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2845,29 +3243,35 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3302,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3340,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3378,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3416,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,8 +3454,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3037,29 +3471,35 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-5300</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-20600</v>
+        <v>-8300</v>
       </c>
       <c r="I89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3512,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3083,29 +3525,35 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3584,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3622,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3179,29 +3639,35 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3680,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3714,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3752,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3790,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,8 +3828,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3353,29 +3845,35 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>50700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>11500</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>34500</v>
+        <v>50000</v>
       </c>
       <c r="I100" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K100" s="3">
         <v>12400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3385,29 +3883,35 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3417,25 +3921,31 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>36100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>6200</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>3400</v>
+        <v>35600</v>
       </c>
       <c r="I102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -731,25 +731,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>49600</v>
+        <v>50400</v>
       </c>
       <c r="E8" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="F8" s="3">
-        <v>48200</v>
+        <v>49000</v>
       </c>
       <c r="G8" s="3">
-        <v>35300</v>
+        <v>35900</v>
       </c>
       <c r="H8" s="3">
-        <v>36700</v>
+        <v>37300</v>
       </c>
       <c r="I8" s="3">
-        <v>24100</v>
+        <v>24500</v>
       </c>
       <c r="J8" s="3">
-        <v>94500</v>
+        <v>96100</v>
       </c>
       <c r="K8" s="3">
         <v>29500</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="E9" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="F9" s="3">
-        <v>39500</v>
+        <v>40200</v>
       </c>
       <c r="G9" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="H9" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="I9" s="3">
-        <v>19400</v>
+        <v>19700</v>
       </c>
       <c r="J9" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
       <c r="K9" s="3">
         <v>22600</v>
@@ -807,25 +807,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="E10" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F10" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="G10" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H10" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I10" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J10" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="K10" s="3">
         <v>6800</v>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I14" s="3">
         <v>-1600</v>
@@ -1025,26 +1025,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>56900</v>
       </c>
       <c r="E17" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="F17" s="3">
-        <v>62600</v>
+        <v>63600</v>
       </c>
       <c r="G17" s="3">
-        <v>40600</v>
+        <v>41200</v>
       </c>
       <c r="H17" s="3">
-        <v>42800</v>
+        <v>43500</v>
       </c>
       <c r="I17" s="3">
-        <v>26900</v>
+        <v>27300</v>
       </c>
       <c r="J17" s="3">
-        <v>111300</v>
+        <v>113100</v>
       </c>
       <c r="K17" s="3">
         <v>35000</v>
@@ -1063,26 +1063,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-6500</v>
       </c>
       <c r="E18" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F18" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="G18" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="H18" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="I18" s="3">
         <v>-2800</v>
       </c>
       <c r="J18" s="3">
-        <v>-16800</v>
+        <v>-17100</v>
       </c>
       <c r="K18" s="3">
         <v>-5500</v>
@@ -1117,8 +1117,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1136,7 +1136,7 @@
         <v>1100</v>
       </c>
       <c r="J20" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
@@ -1158,8 +1158,8 @@
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-4300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1168,13 +1168,13 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="I21" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="J21" s="3">
-        <v>-15900</v>
+        <v>-16100</v>
       </c>
       <c r="K21" s="3">
         <v>-5500</v>
@@ -1209,10 +1209,10 @@
         <v>1100</v>
       </c>
       <c r="I22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J22" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="K22" s="3">
         <v>1900</v>
@@ -1232,25 +1232,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="E23" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="F23" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="G23" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H23" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="I23" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="J23" s="3">
-        <v>-22700</v>
+        <v>-23100</v>
       </c>
       <c r="K23" s="3">
         <v>-7400</v>
@@ -1345,26 +1345,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-6000</v>
       </c>
       <c r="E26" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F26" s="3">
-        <v>-12600</v>
+        <v>-12800</v>
       </c>
       <c r="G26" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H26" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I26" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J26" s="3">
-        <v>-22700</v>
+        <v>-23100</v>
       </c>
       <c r="K26" s="3">
         <v>-7400</v>
@@ -1383,26 +1383,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-5500</v>
       </c>
       <c r="E27" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F27" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="G27" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H27" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="I27" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="J27" s="3">
-        <v>-47400</v>
+        <v>-48200</v>
       </c>
       <c r="K27" s="3">
         <v>-20000</v>
@@ -1573,8 +1573,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1592,7 +1592,7 @@
         <v>-1100</v>
       </c>
       <c r="J32" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
@@ -1611,26 +1611,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-5500</v>
       </c>
       <c r="E33" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F33" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="G33" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H33" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="I33" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="J33" s="3">
-        <v>-47400</v>
+        <v>-48200</v>
       </c>
       <c r="K33" s="3">
         <v>-20000</v>
@@ -1687,26 +1687,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-5500</v>
       </c>
       <c r="E35" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F35" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="G35" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H35" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="I35" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="J35" s="3">
-        <v>-47400</v>
+        <v>-48200</v>
       </c>
       <c r="K35" s="3">
         <v>-20000</v>
@@ -1800,26 +1800,26 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>44900</v>
       </c>
       <c r="E41" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="F41" s="3">
-        <v>56000</v>
+        <v>57000</v>
       </c>
       <c r="G41" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="H41" s="3">
-        <v>49200</v>
+        <v>50000</v>
       </c>
       <c r="I41" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1838,14 +1838,14 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>20100</v>
       </c>
       <c r="E42" s="3">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="F42" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1876,26 +1876,26 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>17000</v>
       </c>
       <c r="E43" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="F43" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G43" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="H43" s="3">
-        <v>20600</v>
+        <v>20900</v>
       </c>
       <c r="I43" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>16600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>17900</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1914,26 +1914,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>16600</v>
       </c>
       <c r="E44" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="F44" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="G44" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="H44" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="I44" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>9900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10000</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1952,26 +1952,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>11700</v>
       </c>
       <c r="E45" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="G45" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="H45" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>3500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1990,26 +1990,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>110300</v>
       </c>
       <c r="E46" s="3">
-        <v>107000</v>
+        <v>108800</v>
       </c>
       <c r="F46" s="3">
-        <v>113500</v>
+        <v>115400</v>
       </c>
       <c r="G46" s="3">
-        <v>61800</v>
+        <v>62800</v>
       </c>
       <c r="H46" s="3">
-        <v>87100</v>
+        <v>88500</v>
       </c>
       <c r="I46" s="3">
-        <v>43000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>43700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>38700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2028,26 +2028,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>12400</v>
       </c>
       <c r="E47" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="F47" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I47" s="3">
         <v>11500</v>
       </c>
-      <c r="G47" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2066,26 +2066,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>6400</v>
       </c>
       <c r="E48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F48" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H48" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>3200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2104,26 +2104,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>10800</v>
       </c>
       <c r="E49" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F49" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="G49" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="H49" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="I49" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11700</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2218,8 +2218,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -2228,7 +2228,7 @@
         <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
         <v>2500</v>
@@ -2236,8 +2236,8 @@
       <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2294,26 +2294,26 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>140600</v>
       </c>
       <c r="E54" s="3">
-        <v>135600</v>
+        <v>137900</v>
       </c>
       <c r="F54" s="3">
-        <v>142400</v>
+        <v>144800</v>
       </c>
       <c r="G54" s="3">
-        <v>97000</v>
+        <v>98700</v>
       </c>
       <c r="H54" s="3">
-        <v>118700</v>
+        <v>120700</v>
       </c>
       <c r="I54" s="3">
-        <v>70400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>71600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>65800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2364,26 +2364,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>22600</v>
       </c>
       <c r="E57" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="G57" s="3">
-        <v>19000</v>
+        <v>19300</v>
       </c>
       <c r="H57" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I57" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2402,26 +2402,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>17800</v>
       </c>
       <c r="E58" s="3">
-        <v>13300</v>
+        <v>13500</v>
       </c>
       <c r="F58" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G58" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="H58" s="3">
-        <v>19900</v>
+        <v>20200</v>
       </c>
       <c r="I58" s="3">
-        <v>23300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>22200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2440,26 +2440,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>4400</v>
       </c>
       <c r="E59" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F59" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G59" s="3">
         <v>3200</v>
       </c>
       <c r="H59" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="I59" s="3">
-        <v>11100</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>15700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2478,26 +2478,26 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>44800</v>
       </c>
       <c r="E60" s="3">
-        <v>33400</v>
+        <v>33900</v>
       </c>
       <c r="F60" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="G60" s="3">
-        <v>32100</v>
+        <v>32700</v>
       </c>
       <c r="H60" s="3">
-        <v>45800</v>
+        <v>46500</v>
       </c>
       <c r="I60" s="3">
-        <v>48000</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>48800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>52800</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2517,25 +2517,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="E61" s="3">
-        <v>77200</v>
+        <v>78500</v>
       </c>
       <c r="F61" s="3">
-        <v>76700</v>
+        <v>78000</v>
       </c>
       <c r="G61" s="3">
-        <v>80700</v>
+        <v>82100</v>
       </c>
       <c r="H61" s="3">
-        <v>35100</v>
+        <v>35700</v>
       </c>
       <c r="I61" s="3">
-        <v>35500</v>
+        <v>36100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>37400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2554,26 +2554,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>4800</v>
       </c>
       <c r="E62" s="3">
         <v>4500</v>
       </c>
       <c r="F62" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G62" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H62" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>2500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2706,26 +2706,26 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>122500</v>
       </c>
       <c r="E66" s="3">
-        <v>122900</v>
+        <v>124900</v>
       </c>
       <c r="F66" s="3">
-        <v>118700</v>
+        <v>120700</v>
       </c>
       <c r="G66" s="3">
-        <v>124800</v>
+        <v>126900</v>
       </c>
       <c r="H66" s="3">
-        <v>93200</v>
+        <v>94700</v>
       </c>
       <c r="I66" s="3">
-        <v>92700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>94300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>99600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>469600</v>
+        <v>477500</v>
       </c>
       <c r="H70" s="3">
-        <v>362600</v>
+        <v>368700</v>
       </c>
       <c r="I70" s="3">
-        <v>300700</v>
+        <v>305700</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>267900</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2912,26 +2912,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-437100</v>
       </c>
       <c r="E72" s="3">
-        <v>-424500</v>
+        <v>-431600</v>
       </c>
       <c r="F72" s="3">
-        <v>-418200</v>
+        <v>-425200</v>
       </c>
       <c r="G72" s="3">
-        <v>-435600</v>
+        <v>-442900</v>
       </c>
       <c r="H72" s="3">
-        <v>-324000</v>
+        <v>-329500</v>
       </c>
       <c r="I72" s="3">
-        <v>-310100</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-315300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-303300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3064,26 +3064,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>18200</v>
       </c>
       <c r="E76" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="F76" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="G76" s="3">
-        <v>-497400</v>
+        <v>-505800</v>
       </c>
       <c r="H76" s="3">
-        <v>-337000</v>
+        <v>-342700</v>
       </c>
       <c r="I76" s="3">
-        <v>-323000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-328400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-301700</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3183,26 +3183,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-5500</v>
       </c>
       <c r="E81" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F81" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="G81" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H81" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="I81" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="J81" s="3">
-        <v>-47400</v>
+        <v>-48200</v>
       </c>
       <c r="K81" s="3">
         <v>-20000</v>
@@ -3240,8 +3240,8 @@
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>1100</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -3253,7 +3253,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3468,8 +3468,8 @@
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="E89" s="3">
+        <v>-38700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -3478,13 +3478,13 @@
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="I89" s="3">
-        <v>-5200</v>
+        <v>-26000</v>
       </c>
       <c r="J89" s="3">
-        <v>-20300</v>
+        <v>-20600</v>
       </c>
       <c r="K89" s="3">
         <v>-6000</v>
@@ -3522,8 +3522,8 @@
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>-1000</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3535,7 +3535,7 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -3636,8 +3636,8 @@
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>-28900</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -3646,13 +3646,13 @@
         <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-11800</v>
       </c>
       <c r="J94" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="K94" s="3">
         <v>-2800</v>
@@ -3842,8 +3842,8 @@
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3">
+        <v>101500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3852,13 +3852,13 @@
         <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>50000</v>
+        <v>50800</v>
       </c>
       <c r="I100" s="3">
-        <v>11400</v>
+        <v>46200</v>
       </c>
       <c r="J100" s="3">
-        <v>34000</v>
+        <v>34600</v>
       </c>
       <c r="K100" s="3">
         <v>12400</v>
@@ -3880,8 +3880,8 @@
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>-2000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3893,7 +3893,7 @@
         <v>-200</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
         <v>1000</v>
@@ -3918,8 +3918,8 @@
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3">
+        <v>31900</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3928,13 +3928,13 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>35600</v>
+        <v>36200</v>
       </c>
       <c r="I102" s="3">
-        <v>6100</v>
+        <v>9600</v>
       </c>
       <c r="J102" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K102" s="3">
         <v>4000</v>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,207 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>50400</v>
+        <v>52500</v>
       </c>
       <c r="E8" s="3">
-        <v>36100</v>
+        <v>44500</v>
       </c>
       <c r="F8" s="3">
-        <v>49000</v>
+        <v>50800</v>
       </c>
       <c r="G8" s="3">
-        <v>35900</v>
+        <v>36300</v>
       </c>
       <c r="H8" s="3">
-        <v>37300</v>
+        <v>49400</v>
       </c>
       <c r="I8" s="3">
+        <v>36200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K8" s="3">
         <v>24500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>96100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>29500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>24700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>98200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>41600</v>
+        <v>40300</v>
       </c>
       <c r="E9" s="3">
-        <v>29000</v>
+        <v>35700</v>
       </c>
       <c r="F9" s="3">
-        <v>40200</v>
+        <v>41900</v>
       </c>
       <c r="G9" s="3">
         <v>29200</v>
       </c>
       <c r="H9" s="3">
-        <v>30600</v>
+        <v>40500</v>
       </c>
       <c r="I9" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K9" s="3">
         <v>19700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>76000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>22600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>18600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>73100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E10" s="3">
         <v>8800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G10" s="3">
         <v>7100</v>
       </c>
-      <c r="F10" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I10" s="3">
         <v>6700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>20000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>25200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +880,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +920,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +964,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -948,29 +987,35 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1052,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1071,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>56900</v>
+        <v>57400</v>
       </c>
       <c r="E17" s="3">
-        <v>41700</v>
+        <v>51000</v>
       </c>
       <c r="F17" s="3">
-        <v>63600</v>
+        <v>57300</v>
       </c>
       <c r="G17" s="3">
-        <v>41200</v>
+        <v>42000</v>
       </c>
       <c r="H17" s="3">
-        <v>43500</v>
+        <v>64100</v>
       </c>
       <c r="I17" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K17" s="3">
         <v>27300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>113100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>35000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>30500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>123200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-17100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-25000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,181 +1177,207 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-16100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-25800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>1100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
       </c>
       <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6100</v>
+        <v>-4500</v>
       </c>
       <c r="E23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-23100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-27500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1299,11 +1390,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1437,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-12800</v>
-      </c>
       <c r="G26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-23100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-27400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H27" s="3">
-        <v>-14100</v>
+        <v>17800</v>
       </c>
       <c r="I27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-48200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-23100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-72900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1569,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1613,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1657,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1701,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H33" s="3">
-        <v>-14100</v>
+        <v>17800</v>
       </c>
       <c r="I33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-48200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-23100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-72900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1833,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H35" s="3">
-        <v>-14100</v>
+        <v>17800</v>
       </c>
       <c r="I35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-48200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-23100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-72900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1948,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,63 +1966,71 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44900</v>
+        <v>27800</v>
       </c>
       <c r="E41" s="3">
-        <v>45800</v>
+        <v>33200</v>
       </c>
       <c r="F41" s="3">
-        <v>57000</v>
+        <v>45300</v>
       </c>
       <c r="G41" s="3">
-        <v>20000</v>
+        <v>46100</v>
       </c>
       <c r="H41" s="3">
-        <v>50000</v>
+        <v>57400</v>
       </c>
       <c r="I41" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>50400</v>
+      </c>
+      <c r="K41" s="3">
         <v>13800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20100</v>
+        <v>22000</v>
       </c>
       <c r="E42" s="3">
-        <v>26400</v>
+        <v>20400</v>
       </c>
       <c r="F42" s="3">
-        <v>17500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>20300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>17600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1865,280 +2044,328 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17000</v>
+        <v>12200</v>
       </c>
       <c r="E43" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>7100</v>
-      </c>
       <c r="H43" s="3">
-        <v>20900</v>
+        <v>7000</v>
       </c>
       <c r="I43" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K43" s="3">
         <v>16600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16600</v>
+        <v>19500</v>
       </c>
       <c r="E44" s="3">
-        <v>14300</v>
+        <v>15300</v>
       </c>
       <c r="F44" s="3">
-        <v>13400</v>
+        <v>16700</v>
       </c>
       <c r="G44" s="3">
-        <v>11000</v>
+        <v>14400</v>
       </c>
       <c r="H44" s="3">
-        <v>9800</v>
+        <v>13500</v>
       </c>
       <c r="I44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J44" s="3">
         <v>9900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L44" s="3">
         <v>10000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11700</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="F45" s="3">
-        <v>20700</v>
+        <v>11800</v>
       </c>
       <c r="G45" s="3">
-        <v>24700</v>
+        <v>13500</v>
       </c>
       <c r="H45" s="3">
-        <v>7800</v>
+        <v>20800</v>
       </c>
       <c r="I45" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110300</v>
+        <v>98300</v>
       </c>
       <c r="E46" s="3">
-        <v>108800</v>
+        <v>97300</v>
       </c>
       <c r="F46" s="3">
-        <v>115400</v>
+        <v>111200</v>
       </c>
       <c r="G46" s="3">
-        <v>62800</v>
+        <v>109600</v>
       </c>
       <c r="H46" s="3">
-        <v>88500</v>
+        <v>116300</v>
       </c>
       <c r="I46" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K46" s="3">
         <v>43700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>38700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12400</v>
+        <v>15000</v>
       </c>
       <c r="E47" s="3">
-        <v>11600</v>
+        <v>13400</v>
       </c>
       <c r="F47" s="3">
-        <v>11700</v>
+        <v>12500</v>
       </c>
       <c r="G47" s="3">
         <v>11700</v>
       </c>
       <c r="H47" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="I47" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K47" s="3">
         <v>11500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>11300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>7800</v>
       </c>
       <c r="E48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G48" s="3">
         <v>5900</v>
       </c>
-      <c r="F48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6400</v>
-      </c>
       <c r="H48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E49" s="3">
         <v>10800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10900</v>
       </c>
-      <c r="F49" s="3">
-        <v>11100</v>
-      </c>
       <c r="G49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H49" s="3">
         <v>11200</v>
       </c>
-      <c r="H49" s="3">
-        <v>11400</v>
-      </c>
       <c r="I49" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J49" s="3">
         <v>11500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L49" s="3">
         <v>11700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2402,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2446,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2534,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>140600</v>
+        <v>132300</v>
       </c>
       <c r="E54" s="3">
-        <v>137900</v>
+        <v>130400</v>
       </c>
       <c r="F54" s="3">
-        <v>144800</v>
+        <v>141700</v>
       </c>
       <c r="G54" s="3">
-        <v>98700</v>
+        <v>138900</v>
       </c>
       <c r="H54" s="3">
-        <v>120700</v>
+        <v>145900</v>
       </c>
       <c r="I54" s="3">
+        <v>99400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K54" s="3">
         <v>71600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>65800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2600,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,236 +2618,274 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22600</v>
+        <v>21400</v>
       </c>
       <c r="E57" s="3">
-        <v>16000</v>
+        <v>17300</v>
       </c>
       <c r="F57" s="3">
-        <v>17400</v>
+        <v>22800</v>
       </c>
       <c r="G57" s="3">
-        <v>19300</v>
+        <v>16100</v>
       </c>
       <c r="H57" s="3">
-        <v>14200</v>
+        <v>17500</v>
       </c>
       <c r="I57" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K57" s="3">
         <v>13800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>14900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17800</v>
+        <v>25600</v>
       </c>
       <c r="E58" s="3">
-        <v>13500</v>
+        <v>21200</v>
       </c>
       <c r="F58" s="3">
+        <v>17900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H58" s="3">
         <v>7300</v>
       </c>
-      <c r="G58" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>20200</v>
-      </c>
       <c r="I58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K58" s="3">
         <v>23700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>22200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5100</v>
-      </c>
       <c r="G59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K59" s="3">
         <v>11300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44800</v>
+        <v>53200</v>
       </c>
       <c r="E60" s="3">
-        <v>33900</v>
+        <v>43100</v>
       </c>
       <c r="F60" s="3">
-        <v>29800</v>
+        <v>45100</v>
       </c>
       <c r="G60" s="3">
-        <v>32700</v>
+        <v>34200</v>
       </c>
       <c r="H60" s="3">
-        <v>46500</v>
+        <v>30000</v>
       </c>
       <c r="I60" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K60" s="3">
         <v>48800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>52800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65000</v>
+        <v>39600</v>
       </c>
       <c r="E61" s="3">
-        <v>78500</v>
+        <v>57100</v>
       </c>
       <c r="F61" s="3">
-        <v>78000</v>
+        <v>65500</v>
       </c>
       <c r="G61" s="3">
-        <v>82100</v>
+        <v>79100</v>
       </c>
       <c r="H61" s="3">
-        <v>35700</v>
+        <v>78600</v>
       </c>
       <c r="I61" s="3">
+        <v>82700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K61" s="3">
         <v>36100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>37400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800</v>
+        <v>6100</v>
       </c>
       <c r="E62" s="3">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="F62" s="3">
         <v>4800</v>
       </c>
       <c r="G62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I62" s="3">
         <v>5200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2922,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2966,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +3010,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122500</v>
+        <v>106600</v>
       </c>
       <c r="E66" s="3">
-        <v>124900</v>
+        <v>114500</v>
       </c>
       <c r="F66" s="3">
-        <v>120700</v>
+        <v>123400</v>
       </c>
       <c r="G66" s="3">
-        <v>126900</v>
+        <v>125900</v>
       </c>
       <c r="H66" s="3">
-        <v>94700</v>
+        <v>121600</v>
       </c>
       <c r="I66" s="3">
+        <v>127900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K66" s="3">
         <v>94300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>99600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +3076,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +3116,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +3160,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,31 +3181,37 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>477500</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>368700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>481200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>371500</v>
+      </c>
+      <c r="K70" s="3">
         <v>305700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>267900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3248,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-437100</v>
+        <v>-451700</v>
       </c>
       <c r="E72" s="3">
-        <v>-431600</v>
+        <v>-447300</v>
       </c>
       <c r="F72" s="3">
-        <v>-425200</v>
+        <v>-440400</v>
       </c>
       <c r="G72" s="3">
-        <v>-442900</v>
+        <v>-434900</v>
       </c>
       <c r="H72" s="3">
-        <v>-329500</v>
+        <v>-428500</v>
       </c>
       <c r="I72" s="3">
+        <v>-446300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-315300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-303300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3336,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3380,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3424,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18200</v>
+        <v>25700</v>
       </c>
       <c r="E76" s="3">
-        <v>12900</v>
+        <v>15900</v>
       </c>
       <c r="F76" s="3">
-        <v>24100</v>
+        <v>18300</v>
       </c>
       <c r="G76" s="3">
-        <v>-505800</v>
+        <v>13000</v>
       </c>
       <c r="H76" s="3">
-        <v>-342700</v>
+        <v>24200</v>
       </c>
       <c r="I76" s="3">
+        <v>-509600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-345300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-328400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-301700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3512,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H81" s="3">
-        <v>-14100</v>
+        <v>17800</v>
       </c>
       <c r="I81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-48200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-23100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-72900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,46 +3627,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3711,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3755,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3799,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3843,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3887,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>-38700</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="G89" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-26000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-20600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,46 +3953,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +4037,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +4081,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>-28900</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="G94" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-11800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +4147,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +4187,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +4231,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4275,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,118 +4319,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>101500</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
-        <v>50800</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="G100" s="3">
+        <v>102300</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K100" s="3">
         <v>46200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>34600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>12400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>31900</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
-        <v>36200</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="G102" s="3">
+        <v>32200</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K102" s="3">
         <v>9600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>52500</v>
+        <v>49000</v>
       </c>
       <c r="E8" s="3">
-        <v>44500</v>
+        <v>41600</v>
       </c>
       <c r="F8" s="3">
-        <v>50800</v>
+        <v>47400</v>
       </c>
       <c r="G8" s="3">
-        <v>36300</v>
+        <v>34000</v>
       </c>
       <c r="H8" s="3">
-        <v>49400</v>
+        <v>46100</v>
       </c>
       <c r="I8" s="3">
-        <v>36200</v>
+        <v>33800</v>
       </c>
       <c r="J8" s="3">
-        <v>37600</v>
+        <v>35100</v>
       </c>
       <c r="K8" s="3">
         <v>24500</v>
@@ -782,25 +782,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40300</v>
+        <v>37700</v>
       </c>
       <c r="E9" s="3">
-        <v>35700</v>
+        <v>33400</v>
       </c>
       <c r="F9" s="3">
-        <v>41900</v>
+        <v>39100</v>
       </c>
       <c r="G9" s="3">
-        <v>29200</v>
+        <v>27300</v>
       </c>
       <c r="H9" s="3">
-        <v>40500</v>
+        <v>37800</v>
       </c>
       <c r="I9" s="3">
-        <v>29400</v>
+        <v>27500</v>
       </c>
       <c r="J9" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="K9" s="3">
         <v>19700</v>
@@ -826,25 +826,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="E10" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="F10" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="G10" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="H10" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="I10" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="J10" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="K10" s="3">
         <v>4800</v>
@@ -994,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K14" s="3">
         <v>-1600</v>
@@ -1079,25 +1079,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57400</v>
+        <v>53600</v>
       </c>
       <c r="E17" s="3">
-        <v>51000</v>
+        <v>47600</v>
       </c>
       <c r="F17" s="3">
-        <v>57300</v>
+        <v>53600</v>
       </c>
       <c r="G17" s="3">
-        <v>42000</v>
+        <v>39300</v>
       </c>
       <c r="H17" s="3">
-        <v>64100</v>
+        <v>59900</v>
       </c>
       <c r="I17" s="3">
-        <v>41500</v>
+        <v>38800</v>
       </c>
       <c r="J17" s="3">
-        <v>43800</v>
+        <v>40900</v>
       </c>
       <c r="K17" s="3">
         <v>27300</v>
@@ -1123,25 +1123,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="E18" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="F18" s="3">
-        <v>-6600</v>
+        <v>-6100</v>
       </c>
       <c r="G18" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="H18" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="I18" s="3">
-        <v>-5400</v>
+        <v>-5000</v>
       </c>
       <c r="J18" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="K18" s="3">
         <v>-2800</v>
@@ -1185,10 +1185,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>1300</v>
@@ -1197,10 +1197,10 @@
         <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="J20" s="3">
         <v>600</v>
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1247,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="K21" s="3">
         <v>-1000</v>
@@ -1273,22 +1273,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
       </c>
       <c r="F22" s="3">
+        <v>900</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
-        <v>1100</v>
-      </c>
       <c r="H22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
@@ -1317,25 +1317,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="E23" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="F23" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="G23" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="H23" s="3">
-        <v>-13000</v>
+        <v>-12200</v>
       </c>
       <c r="I23" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="J23" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="K23" s="3">
         <v>-4500</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="E26" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="F26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-6500</v>
-      </c>
       <c r="H26" s="3">
-        <v>-12900</v>
+        <v>-12100</v>
       </c>
       <c r="I26" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="J26" s="3">
-        <v>-6700</v>
+        <v>-6200</v>
       </c>
       <c r="K26" s="3">
         <v>-4400</v>
@@ -1493,25 +1493,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="E27" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="F27" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="G27" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="H27" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="I27" s="3">
-        <v>-10700</v>
+        <v>-10000</v>
       </c>
       <c r="J27" s="3">
-        <v>-14200</v>
+        <v>-13300</v>
       </c>
       <c r="K27" s="3">
         <v>-12000</v>
@@ -1713,10 +1713,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-1300</v>
@@ -1725,10 +1725,10 @@
         <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="J32" s="3">
         <v>-600</v>
@@ -1757,25 +1757,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="E33" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="F33" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="G33" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="H33" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="I33" s="3">
-        <v>-10700</v>
+        <v>-10000</v>
       </c>
       <c r="J33" s="3">
-        <v>-14200</v>
+        <v>-13300</v>
       </c>
       <c r="K33" s="3">
         <v>-12000</v>
@@ -1845,25 +1845,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="E35" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="F35" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="G35" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="H35" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="I35" s="3">
-        <v>-10700</v>
+        <v>-10000</v>
       </c>
       <c r="J35" s="3">
-        <v>-14200</v>
+        <v>-13300</v>
       </c>
       <c r="K35" s="3">
         <v>-12000</v>
@@ -1974,25 +1974,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27800</v>
+        <v>25900</v>
       </c>
       <c r="E41" s="3">
-        <v>33200</v>
+        <v>31000</v>
       </c>
       <c r="F41" s="3">
-        <v>45300</v>
+        <v>42300</v>
       </c>
       <c r="G41" s="3">
-        <v>46100</v>
+        <v>43100</v>
       </c>
       <c r="H41" s="3">
-        <v>57400</v>
+        <v>53600</v>
       </c>
       <c r="I41" s="3">
-        <v>20200</v>
+        <v>18800</v>
       </c>
       <c r="J41" s="3">
-        <v>50400</v>
+        <v>47100</v>
       </c>
       <c r="K41" s="3">
         <v>13800</v>
@@ -2018,19 +2018,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22000</v>
+        <v>20600</v>
       </c>
       <c r="E42" s="3">
-        <v>20400</v>
+        <v>19000</v>
       </c>
       <c r="F42" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="G42" s="3">
-        <v>26600</v>
+        <v>24800</v>
       </c>
       <c r="H42" s="3">
-        <v>17600</v>
+        <v>16400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -2062,25 +2062,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12200</v>
+        <v>11400</v>
       </c>
       <c r="E43" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="F43" s="3">
-        <v>17100</v>
+        <v>16000</v>
       </c>
       <c r="G43" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="H43" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="I43" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="J43" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="K43" s="3">
         <v>16600</v>
@@ -2106,25 +2106,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19500</v>
+        <v>18200</v>
       </c>
       <c r="E44" s="3">
-        <v>15300</v>
+        <v>14300</v>
       </c>
       <c r="F44" s="3">
-        <v>16700</v>
+        <v>15600</v>
       </c>
       <c r="G44" s="3">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="H44" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="I44" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="J44" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="K44" s="3">
         <v>9900</v>
@@ -2150,25 +2150,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>15700</v>
       </c>
       <c r="E45" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="F45" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="G45" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="H45" s="3">
-        <v>20800</v>
+        <v>19400</v>
       </c>
       <c r="I45" s="3">
-        <v>24900</v>
+        <v>23200</v>
       </c>
       <c r="J45" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="K45" s="3">
         <v>3300</v>
@@ -2194,25 +2194,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>98300</v>
+        <v>91800</v>
       </c>
       <c r="E46" s="3">
-        <v>97300</v>
+        <v>90900</v>
       </c>
       <c r="F46" s="3">
-        <v>111200</v>
+        <v>103800</v>
       </c>
       <c r="G46" s="3">
-        <v>109600</v>
+        <v>102400</v>
       </c>
       <c r="H46" s="3">
-        <v>116300</v>
+        <v>108600</v>
       </c>
       <c r="I46" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="J46" s="3">
-        <v>89200</v>
+        <v>83300</v>
       </c>
       <c r="K46" s="3">
         <v>43700</v>
@@ -2238,25 +2238,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="E47" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="F47" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="G47" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="H47" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="I47" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="J47" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="K47" s="3">
         <v>11500</v>
@@ -2282,25 +2282,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="E48" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="F48" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="G48" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="H48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J48" s="3">
         <v>6100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6600</v>
       </c>
       <c r="K48" s="3">
         <v>3100</v>
@@ -2326,25 +2326,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I49" s="3">
         <v>10600</v>
       </c>
-      <c r="E49" s="3">
-        <v>10800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>10900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>11300</v>
-      </c>
       <c r="J49" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="K49" s="3">
         <v>11500</v>
@@ -2458,10 +2458,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -2473,10 +2473,10 @@
         <v>500</v>
       </c>
       <c r="I52" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="J52" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K52" s="3">
         <v>1700</v>
@@ -2546,25 +2546,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>132300</v>
+        <v>123600</v>
       </c>
       <c r="E54" s="3">
-        <v>130400</v>
+        <v>121800</v>
       </c>
       <c r="F54" s="3">
-        <v>141700</v>
+        <v>132400</v>
       </c>
       <c r="G54" s="3">
-        <v>138900</v>
+        <v>129800</v>
       </c>
       <c r="H54" s="3">
-        <v>145900</v>
+        <v>136300</v>
       </c>
       <c r="I54" s="3">
-        <v>99400</v>
+        <v>92900</v>
       </c>
       <c r="J54" s="3">
-        <v>121600</v>
+        <v>113600</v>
       </c>
       <c r="K54" s="3">
         <v>71600</v>
@@ -2626,25 +2626,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21400</v>
+        <v>20000</v>
       </c>
       <c r="E57" s="3">
-        <v>17300</v>
+        <v>16100</v>
       </c>
       <c r="F57" s="3">
-        <v>22800</v>
+        <v>21300</v>
       </c>
       <c r="G57" s="3">
-        <v>16100</v>
+        <v>15000</v>
       </c>
       <c r="H57" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="I57" s="3">
-        <v>19500</v>
+        <v>18200</v>
       </c>
       <c r="J57" s="3">
-        <v>14300</v>
+        <v>13300</v>
       </c>
       <c r="K57" s="3">
         <v>13800</v>
@@ -2670,25 +2670,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="E58" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="F58" s="3">
-        <v>17900</v>
+        <v>16700</v>
       </c>
       <c r="G58" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="H58" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="I58" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="J58" s="3">
-        <v>20400</v>
+        <v>19000</v>
       </c>
       <c r="K58" s="3">
         <v>23700</v>
@@ -2714,25 +2714,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="E59" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="F59" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="G59" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="H59" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="I59" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="J59" s="3">
-        <v>12300</v>
+        <v>11400</v>
       </c>
       <c r="K59" s="3">
         <v>11300</v>
@@ -2758,25 +2758,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53200</v>
+        <v>49700</v>
       </c>
       <c r="E60" s="3">
-        <v>43100</v>
+        <v>40200</v>
       </c>
       <c r="F60" s="3">
-        <v>45100</v>
+        <v>42200</v>
       </c>
       <c r="G60" s="3">
-        <v>34200</v>
+        <v>31900</v>
       </c>
       <c r="H60" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="I60" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="J60" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="K60" s="3">
         <v>48800</v>
@@ -2802,25 +2802,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39600</v>
+        <v>37000</v>
       </c>
       <c r="E61" s="3">
-        <v>57100</v>
+        <v>53400</v>
       </c>
       <c r="F61" s="3">
-        <v>65500</v>
+        <v>61100</v>
       </c>
       <c r="G61" s="3">
-        <v>79100</v>
+        <v>73900</v>
       </c>
       <c r="H61" s="3">
-        <v>78600</v>
+        <v>73400</v>
       </c>
       <c r="I61" s="3">
-        <v>82700</v>
+        <v>77300</v>
       </c>
       <c r="J61" s="3">
-        <v>36000</v>
+        <v>33600</v>
       </c>
       <c r="K61" s="3">
         <v>36100</v>
@@ -2846,25 +2846,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
-        <v>6500</v>
-      </c>
       <c r="F62" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="G62" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="H62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I62" s="3">
         <v>4900</v>
       </c>
-      <c r="I62" s="3">
-        <v>5200</v>
-      </c>
       <c r="J62" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="K62" s="3">
         <v>2500</v>
@@ -3022,25 +3022,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106600</v>
+        <v>99600</v>
       </c>
       <c r="E66" s="3">
-        <v>114500</v>
+        <v>107000</v>
       </c>
       <c r="F66" s="3">
-        <v>123400</v>
+        <v>115300</v>
       </c>
       <c r="G66" s="3">
-        <v>125900</v>
+        <v>117600</v>
       </c>
       <c r="H66" s="3">
-        <v>121600</v>
+        <v>113600</v>
       </c>
       <c r="I66" s="3">
-        <v>127900</v>
+        <v>119500</v>
       </c>
       <c r="J66" s="3">
-        <v>95400</v>
+        <v>89100</v>
       </c>
       <c r="K66" s="3">
         <v>94300</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>481200</v>
+        <v>449400</v>
       </c>
       <c r="J70" s="3">
-        <v>371500</v>
+        <v>347000</v>
       </c>
       <c r="K70" s="3">
         <v>305700</v>
@@ -3260,25 +3260,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-451700</v>
+        <v>-421900</v>
       </c>
       <c r="E72" s="3">
-        <v>-447300</v>
+        <v>-417800</v>
       </c>
       <c r="F72" s="3">
-        <v>-440400</v>
+        <v>-411400</v>
       </c>
       <c r="G72" s="3">
-        <v>-434900</v>
+        <v>-406200</v>
       </c>
       <c r="H72" s="3">
-        <v>-428500</v>
+        <v>-400200</v>
       </c>
       <c r="I72" s="3">
-        <v>-446300</v>
+        <v>-416900</v>
       </c>
       <c r="J72" s="3">
-        <v>-332000</v>
+        <v>-310100</v>
       </c>
       <c r="K72" s="3">
         <v>-315300</v>
@@ -3436,25 +3436,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="E76" s="3">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="F76" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="G76" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="H76" s="3">
-        <v>24200</v>
+        <v>22600</v>
       </c>
       <c r="I76" s="3">
-        <v>-509600</v>
+        <v>-476100</v>
       </c>
       <c r="J76" s="3">
-        <v>-345300</v>
+        <v>-322600</v>
       </c>
       <c r="K76" s="3">
         <v>-328400</v>
@@ -3573,25 +3573,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="E81" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="F81" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="G81" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="H81" s="3">
-        <v>17800</v>
+        <v>16600</v>
       </c>
       <c r="I81" s="3">
-        <v>-10700</v>
+        <v>-10000</v>
       </c>
       <c r="J81" s="3">
-        <v>-14200</v>
+        <v>-13300</v>
       </c>
       <c r="K81" s="3">
         <v>-12000</v>
@@ -3644,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3908,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-39000</v>
+        <v>-36500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3917,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>-8500</v>
+        <v>-7900</v>
       </c>
       <c r="K89" s="3">
         <v>-26000</v>
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-29100</v>
+        <v>-27200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -4111,7 +4111,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="K94" s="3">
         <v>-11800</v>
@@ -4340,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>102300</v>
+        <v>95600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -4349,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>51200</v>
+        <v>47900</v>
       </c>
       <c r="K100" s="3">
         <v>46200</v>
@@ -4384,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -4428,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>32200</v>
+        <v>30000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -4437,7 +4437,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>36500</v>
+        <v>34100</v>
       </c>
       <c r="K102" s="3">
         <v>9600</v>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,220 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>49000</v>
+        <v>36500</v>
       </c>
       <c r="E8" s="3">
-        <v>41600</v>
+        <v>48600</v>
       </c>
       <c r="F8" s="3">
-        <v>47400</v>
+        <v>41200</v>
       </c>
       <c r="G8" s="3">
-        <v>34000</v>
+        <v>47000</v>
       </c>
       <c r="H8" s="3">
-        <v>46100</v>
+        <v>33600</v>
       </c>
       <c r="I8" s="3">
-        <v>33800</v>
+        <v>45700</v>
       </c>
       <c r="J8" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K8" s="3">
         <v>35100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>96100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37700</v>
+        <v>28600</v>
       </c>
       <c r="E9" s="3">
-        <v>33400</v>
+        <v>37300</v>
       </c>
       <c r="F9" s="3">
-        <v>39100</v>
+        <v>33100</v>
       </c>
       <c r="G9" s="3">
-        <v>27300</v>
+        <v>38800</v>
       </c>
       <c r="H9" s="3">
-        <v>37800</v>
+        <v>27000</v>
       </c>
       <c r="I9" s="3">
-        <v>27500</v>
+        <v>37500</v>
       </c>
       <c r="J9" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K9" s="3">
         <v>28800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>76000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>73100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11300</v>
+        <v>7900</v>
       </c>
       <c r="E10" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G10" s="3">
         <v>8200</v>
       </c>
-      <c r="F10" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6700</v>
-      </c>
       <c r="H10" s="3">
-        <v>8300</v>
+        <v>6600</v>
       </c>
       <c r="I10" s="3">
-        <v>6300</v>
+        <v>8200</v>
       </c>
       <c r="J10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K10" s="3">
         <v>6400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -993,29 +1013,32 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>53600</v>
+        <v>40000</v>
       </c>
       <c r="E17" s="3">
-        <v>47600</v>
+        <v>53100</v>
       </c>
       <c r="F17" s="3">
-        <v>53600</v>
+        <v>47200</v>
       </c>
       <c r="G17" s="3">
-        <v>39300</v>
+        <v>53100</v>
       </c>
       <c r="H17" s="3">
-        <v>59900</v>
+        <v>38900</v>
       </c>
       <c r="I17" s="3">
-        <v>38800</v>
+        <v>59400</v>
       </c>
       <c r="J17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K17" s="3">
         <v>40900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>113100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>123200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-13800</v>
-      </c>
       <c r="I18" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-25000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,52 +1212,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>1300</v>
-      </c>
       <c r="G20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>2700</v>
-      </c>
       <c r="I20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1237,126 +1274,135 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-25800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>900</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
       </c>
       <c r="G22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
       </c>
       <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-6600</v>
-      </c>
       <c r="F23" s="3">
-        <v>-5800</v>
+        <v>-6500</v>
       </c>
       <c r="G23" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="H23" s="3">
-        <v>-12200</v>
+        <v>-6000</v>
       </c>
       <c r="I23" s="3">
-        <v>-4000</v>
+        <v>-12100</v>
       </c>
       <c r="J23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
@@ -1376,11 +1422,11 @@
         <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1396,11 +1442,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4200</v>
+        <v>-3200</v>
       </c>
       <c r="E26" s="3">
-        <v>-6600</v>
+        <v>-4100</v>
       </c>
       <c r="F26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-12100</v>
-      </c>
       <c r="I26" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-6400</v>
-      </c>
       <c r="F27" s="3">
-        <v>-5200</v>
+        <v>-6300</v>
       </c>
       <c r="G27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3">
-        <v>16600</v>
-      </c>
       <c r="I27" s="3">
-        <v>-10000</v>
+        <v>16500</v>
       </c>
       <c r="J27" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-48200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-72900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1774,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1300</v>
-      </c>
       <c r="G32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2700</v>
-      </c>
       <c r="I32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-6400</v>
-      </c>
       <c r="F33" s="3">
-        <v>-5200</v>
+        <v>-6300</v>
       </c>
       <c r="G33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3">
-        <v>16600</v>
-      </c>
       <c r="I33" s="3">
-        <v>-10000</v>
+        <v>16500</v>
       </c>
       <c r="J33" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-48200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-72900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-6400</v>
-      </c>
       <c r="F35" s="3">
-        <v>-5200</v>
+        <v>-6300</v>
       </c>
       <c r="G35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3">
-        <v>16600</v>
-      </c>
       <c r="I35" s="3">
-        <v>-10000</v>
+        <v>16500</v>
       </c>
       <c r="J35" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-48200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-72900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,41 +2054,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25900</v>
+        <v>23800</v>
       </c>
       <c r="E41" s="3">
-        <v>31000</v>
+        <v>25700</v>
       </c>
       <c r="F41" s="3">
-        <v>42300</v>
+        <v>30700</v>
       </c>
       <c r="G41" s="3">
-        <v>43100</v>
+        <v>41900</v>
       </c>
       <c r="H41" s="3">
-        <v>53600</v>
+        <v>42700</v>
       </c>
       <c r="I41" s="3">
-        <v>18800</v>
+        <v>53100</v>
       </c>
       <c r="J41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K41" s="3">
         <v>47100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,28 +2099,31 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20600</v>
+        <v>18700</v>
       </c>
       <c r="E42" s="3">
-        <v>19000</v>
+        <v>20400</v>
       </c>
       <c r="F42" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="G42" s="3">
-        <v>24800</v>
+        <v>18800</v>
       </c>
       <c r="H42" s="3">
-        <v>16400</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>24600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>16300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -2050,47 +2140,50 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11400</v>
+        <v>8900</v>
       </c>
       <c r="E43" s="3">
-        <v>14500</v>
+        <v>11300</v>
       </c>
       <c r="F43" s="3">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="G43" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H43" s="3">
         <v>8400</v>
       </c>
-      <c r="H43" s="3">
-        <v>6500</v>
-      </c>
       <c r="I43" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="J43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K43" s="3">
         <v>19700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,41 +2193,44 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18200</v>
+        <v>16100</v>
       </c>
       <c r="E44" s="3">
-        <v>14300</v>
+        <v>18000</v>
       </c>
       <c r="F44" s="3">
-        <v>15600</v>
+        <v>14200</v>
       </c>
       <c r="G44" s="3">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="H44" s="3">
-        <v>12600</v>
+        <v>13400</v>
       </c>
       <c r="I44" s="3">
-        <v>10400</v>
+        <v>12500</v>
       </c>
       <c r="J44" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K44" s="3">
         <v>9200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2144,41 +2240,44 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15700</v>
+        <v>17000</v>
       </c>
       <c r="E45" s="3">
-        <v>12000</v>
+        <v>15600</v>
       </c>
       <c r="F45" s="3">
-        <v>11000</v>
+        <v>11900</v>
       </c>
       <c r="G45" s="3">
-        <v>12600</v>
+        <v>10900</v>
       </c>
       <c r="H45" s="3">
-        <v>19400</v>
+        <v>12500</v>
       </c>
       <c r="I45" s="3">
-        <v>23200</v>
+        <v>19300</v>
       </c>
       <c r="J45" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K45" s="3">
         <v>7300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,41 +2287,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>91800</v>
+        <v>84500</v>
       </c>
       <c r="E46" s="3">
-        <v>90900</v>
+        <v>91000</v>
       </c>
       <c r="F46" s="3">
-        <v>103800</v>
+        <v>90000</v>
       </c>
       <c r="G46" s="3">
-        <v>102400</v>
+        <v>102900</v>
       </c>
       <c r="H46" s="3">
-        <v>108600</v>
+        <v>101500</v>
       </c>
       <c r="I46" s="3">
-        <v>59100</v>
+        <v>107600</v>
       </c>
       <c r="J46" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K46" s="3">
         <v>83300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>43700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,41 +2334,44 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="E47" s="3">
-        <v>12600</v>
+        <v>13900</v>
       </c>
       <c r="F47" s="3">
-        <v>11700</v>
+        <v>12400</v>
       </c>
       <c r="G47" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K47" s="3">
         <v>11000</v>
       </c>
-      <c r="H47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,41 +2381,44 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="E48" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="F48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,41 +2428,44 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="E49" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="3">
         <v>10100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>10200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>10300</v>
       </c>
-      <c r="H49" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>10600</v>
-      </c>
       <c r="J49" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K49" s="3">
         <v>10700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,13 +2569,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -2470,23 +2590,23 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
-        <v>6100</v>
-      </c>
       <c r="J52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,41 +2663,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>123600</v>
+        <v>113700</v>
       </c>
       <c r="E54" s="3">
-        <v>121800</v>
+        <v>122500</v>
       </c>
       <c r="F54" s="3">
-        <v>132400</v>
+        <v>120700</v>
       </c>
       <c r="G54" s="3">
-        <v>129800</v>
+        <v>131200</v>
       </c>
       <c r="H54" s="3">
-        <v>136300</v>
+        <v>128600</v>
       </c>
       <c r="I54" s="3">
-        <v>92900</v>
+        <v>135000</v>
       </c>
       <c r="J54" s="3">
+        <v>92000</v>
+      </c>
+      <c r="K54" s="3">
         <v>113600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,41 +2750,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20000</v>
+        <v>13800</v>
       </c>
       <c r="E57" s="3">
-        <v>16100</v>
+        <v>19800</v>
       </c>
       <c r="F57" s="3">
-        <v>21300</v>
+        <v>16000</v>
       </c>
       <c r="G57" s="3">
-        <v>15000</v>
+        <v>21100</v>
       </c>
       <c r="H57" s="3">
-        <v>16400</v>
+        <v>14900</v>
       </c>
       <c r="I57" s="3">
-        <v>18200</v>
+        <v>16200</v>
       </c>
       <c r="J57" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K57" s="3">
         <v>13300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,41 +2795,44 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="E58" s="3">
-        <v>19800</v>
+        <v>23700</v>
       </c>
       <c r="F58" s="3">
-        <v>16700</v>
+        <v>19600</v>
       </c>
       <c r="G58" s="3">
-        <v>12700</v>
+        <v>16600</v>
       </c>
       <c r="H58" s="3">
-        <v>6900</v>
+        <v>12600</v>
       </c>
       <c r="I58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J58" s="3">
         <v>9500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,41 +2842,44 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
-        <v>4300</v>
-      </c>
       <c r="F59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
-        <v>4200</v>
-      </c>
       <c r="H59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,41 +2889,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49700</v>
+        <v>46100</v>
       </c>
       <c r="E60" s="3">
-        <v>40200</v>
+        <v>49200</v>
       </c>
       <c r="F60" s="3">
-        <v>42200</v>
+        <v>39900</v>
       </c>
       <c r="G60" s="3">
-        <v>31900</v>
+        <v>41800</v>
       </c>
       <c r="H60" s="3">
-        <v>28000</v>
+        <v>31600</v>
       </c>
       <c r="I60" s="3">
-        <v>30700</v>
+        <v>27800</v>
       </c>
       <c r="J60" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K60" s="3">
         <v>43800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,41 +2936,44 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37000</v>
+        <v>26400</v>
       </c>
       <c r="E61" s="3">
-        <v>53400</v>
+        <v>36700</v>
       </c>
       <c r="F61" s="3">
-        <v>61100</v>
+        <v>52900</v>
       </c>
       <c r="G61" s="3">
-        <v>73900</v>
+        <v>60600</v>
       </c>
       <c r="H61" s="3">
-        <v>73400</v>
+        <v>73200</v>
       </c>
       <c r="I61" s="3">
-        <v>77300</v>
+        <v>72800</v>
       </c>
       <c r="J61" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K61" s="3">
         <v>33600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2840,40 +2983,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
         <v>5700</v>
       </c>
-      <c r="E62" s="3">
-        <v>6100</v>
-      </c>
       <c r="F62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
-        <v>4300</v>
-      </c>
       <c r="H62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3">
-        <v>4900</v>
-      </c>
       <c r="J62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2500</v>
       </c>
       <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>2500</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,41 +3171,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>98700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>106000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>114200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>116500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>112600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>118400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>89100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>94300</v>
+      </c>
+      <c r="M66" s="3">
         <v>99600</v>
       </c>
-      <c r="E66" s="3">
-        <v>107000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>115300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>117600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>113600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>119500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>89100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>94300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>99600</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3187,20 +3355,20 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>449400</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>445400</v>
+      </c>
+      <c r="K70" s="3">
         <v>347000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>305700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>267900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,41 +3425,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-421900</v>
+        <v>-421400</v>
       </c>
       <c r="E72" s="3">
-        <v>-417800</v>
+        <v>-418100</v>
       </c>
       <c r="F72" s="3">
-        <v>-411400</v>
+        <v>-414000</v>
       </c>
       <c r="G72" s="3">
-        <v>-406200</v>
+        <v>-407700</v>
       </c>
       <c r="H72" s="3">
-        <v>-400200</v>
+        <v>-402600</v>
       </c>
       <c r="I72" s="3">
-        <v>-416900</v>
+        <v>-396600</v>
       </c>
       <c r="J72" s="3">
+        <v>-413100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-310100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-315300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-303300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,41 +3613,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24000</v>
+        <v>29100</v>
       </c>
       <c r="E76" s="3">
-        <v>14800</v>
+        <v>23800</v>
       </c>
       <c r="F76" s="3">
-        <v>17100</v>
+        <v>14700</v>
       </c>
       <c r="G76" s="3">
-        <v>12200</v>
+        <v>16900</v>
       </c>
       <c r="H76" s="3">
-        <v>22600</v>
+        <v>12100</v>
       </c>
       <c r="I76" s="3">
-        <v>-476100</v>
+        <v>22400</v>
       </c>
       <c r="J76" s="3">
+        <v>-471800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-322600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-328400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-301700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-6400</v>
-      </c>
       <c r="F81" s="3">
-        <v>-5200</v>
+        <v>-6300</v>
       </c>
       <c r="G81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3">
-        <v>16600</v>
-      </c>
       <c r="I81" s="3">
-        <v>-10000</v>
+        <v>16500</v>
       </c>
       <c r="J81" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-48200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-72900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,38 +3842,41 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4107,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3907,38 +4124,41 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-36100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4175,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3969,17 +4190,17 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>-200</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -3988,19 +4209,22 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4314,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,38 +4331,41 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-26900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4568,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,38 +4585,41 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>95600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>94700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>47900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>46200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>34600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4383,38 +4632,41 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4427,34 +4679,37 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>30000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
+        <v>29800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>34100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,233 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>36500</v>
+        <v>43900</v>
       </c>
       <c r="E8" s="3">
-        <v>48600</v>
+        <v>34800</v>
       </c>
       <c r="F8" s="3">
-        <v>41200</v>
+        <v>46300</v>
       </c>
       <c r="G8" s="3">
-        <v>47000</v>
+        <v>39300</v>
       </c>
       <c r="H8" s="3">
-        <v>33600</v>
+        <v>44800</v>
       </c>
       <c r="I8" s="3">
-        <v>45700</v>
+        <v>32100</v>
       </c>
       <c r="J8" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K8" s="3">
         <v>33500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>96100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>28600</v>
+        <v>34000</v>
       </c>
       <c r="E9" s="3">
-        <v>37300</v>
+        <v>27300</v>
       </c>
       <c r="F9" s="3">
-        <v>33100</v>
+        <v>35600</v>
       </c>
       <c r="G9" s="3">
-        <v>38800</v>
+        <v>31500</v>
       </c>
       <c r="H9" s="3">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="I9" s="3">
-        <v>37500</v>
+        <v>25800</v>
       </c>
       <c r="J9" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K9" s="3">
         <v>27200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>76000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>73100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7900</v>
+        <v>9800</v>
       </c>
       <c r="E10" s="3">
-        <v>11200</v>
+        <v>7500</v>
       </c>
       <c r="F10" s="3">
-        <v>8100</v>
+        <v>10700</v>
       </c>
       <c r="G10" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="H10" s="3">
-        <v>6600</v>
+        <v>7800</v>
       </c>
       <c r="I10" s="3">
-        <v>8200</v>
+        <v>6300</v>
       </c>
       <c r="J10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +957,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1016,29 +1036,32 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40000</v>
+        <v>45200</v>
       </c>
       <c r="E17" s="3">
-        <v>53100</v>
+        <v>38200</v>
       </c>
       <c r="F17" s="3">
-        <v>47200</v>
+        <v>50600</v>
       </c>
       <c r="G17" s="3">
-        <v>53100</v>
+        <v>45000</v>
       </c>
       <c r="H17" s="3">
-        <v>38900</v>
+        <v>50600</v>
       </c>
       <c r="I17" s="3">
-        <v>59400</v>
+        <v>37100</v>
       </c>
       <c r="J17" s="3">
+        <v>56600</v>
+      </c>
+      <c r="K17" s="3">
         <v>38500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>113100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>123200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3600</v>
+        <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-4600</v>
+        <v>-3400</v>
       </c>
       <c r="F18" s="3">
-        <v>-6000</v>
+        <v>-4400</v>
       </c>
       <c r="G18" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="H18" s="3">
-        <v>-5300</v>
+        <v>-5800</v>
       </c>
       <c r="I18" s="3">
-        <v>-13700</v>
+        <v>-5000</v>
       </c>
       <c r="J18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,55 +1246,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>2600</v>
-      </c>
       <c r="J20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1277,38 +1314,41 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-3800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1316,93 +1356,99 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
-        <v>900</v>
-      </c>
       <c r="G22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
       </c>
       <c r="J22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3300</v>
+        <v>-1800</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-3100</v>
       </c>
       <c r="F23" s="3">
-        <v>-6500</v>
+        <v>-4000</v>
       </c>
       <c r="G23" s="3">
-        <v>-5700</v>
+        <v>-6200</v>
       </c>
       <c r="H23" s="3">
-        <v>-6000</v>
+        <v>-5400</v>
       </c>
       <c r="I23" s="3">
-        <v>-12100</v>
+        <v>-5800</v>
       </c>
       <c r="J23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1416,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
@@ -1425,11 +1471,11 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1445,11 +1491,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3200</v>
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
-        <v>-4100</v>
+        <v>-3100</v>
       </c>
       <c r="F26" s="3">
-        <v>-6500</v>
+        <v>-4000</v>
       </c>
       <c r="G26" s="3">
-        <v>-5600</v>
+        <v>-6200</v>
       </c>
       <c r="H26" s="3">
-        <v>-6000</v>
+        <v>-5300</v>
       </c>
       <c r="I26" s="3">
-        <v>-12000</v>
+        <v>-5700</v>
       </c>
       <c r="J26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3300</v>
+        <v>-1700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4100</v>
+        <v>-3100</v>
       </c>
       <c r="F27" s="3">
-        <v>-6300</v>
+        <v>-3900</v>
       </c>
       <c r="G27" s="3">
-        <v>-5100</v>
+        <v>-6000</v>
       </c>
       <c r="H27" s="3">
-        <v>-6000</v>
+        <v>-4900</v>
       </c>
       <c r="I27" s="3">
-        <v>16500</v>
+        <v>-5700</v>
       </c>
       <c r="J27" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-72900</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,102 +1844,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3300</v>
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4100</v>
+        <v>-3100</v>
       </c>
       <c r="F33" s="3">
-        <v>-6300</v>
+        <v>-3900</v>
       </c>
       <c r="G33" s="3">
-        <v>-5100</v>
+        <v>-6000</v>
       </c>
       <c r="H33" s="3">
-        <v>-6000</v>
+        <v>-4900</v>
       </c>
       <c r="I33" s="3">
-        <v>16500</v>
+        <v>-5700</v>
       </c>
       <c r="J33" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-48200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-72900</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3300</v>
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4100</v>
+        <v>-3100</v>
       </c>
       <c r="F35" s="3">
-        <v>-6300</v>
+        <v>-3900</v>
       </c>
       <c r="G35" s="3">
-        <v>-5100</v>
+        <v>-6000</v>
       </c>
       <c r="H35" s="3">
-        <v>-6000</v>
+        <v>-4900</v>
       </c>
       <c r="I35" s="3">
-        <v>16500</v>
+        <v>-5700</v>
       </c>
       <c r="J35" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-48200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-72900</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,44 +2141,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23800</v>
+        <v>17900</v>
       </c>
       <c r="E41" s="3">
-        <v>25700</v>
+        <v>22700</v>
       </c>
       <c r="F41" s="3">
-        <v>30700</v>
+        <v>24500</v>
       </c>
       <c r="G41" s="3">
-        <v>41900</v>
+        <v>29300</v>
       </c>
       <c r="H41" s="3">
-        <v>42700</v>
+        <v>40000</v>
       </c>
       <c r="I41" s="3">
-        <v>53100</v>
+        <v>40700</v>
       </c>
       <c r="J41" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K41" s="3">
         <v>18700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2102,31 +2189,34 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18700</v>
+        <v>16500</v>
       </c>
       <c r="E42" s="3">
-        <v>20400</v>
+        <v>17800</v>
       </c>
       <c r="F42" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="G42" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="H42" s="3">
-        <v>24600</v>
+        <v>17900</v>
       </c>
       <c r="I42" s="3">
-        <v>16300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>23500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>15500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2143,50 +2233,53 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8900</v>
+        <v>14600</v>
       </c>
       <c r="E43" s="3">
-        <v>11300</v>
+        <v>8500</v>
       </c>
       <c r="F43" s="3">
-        <v>14400</v>
+        <v>10800</v>
       </c>
       <c r="G43" s="3">
-        <v>15900</v>
+        <v>13700</v>
       </c>
       <c r="H43" s="3">
-        <v>8400</v>
+        <v>15100</v>
       </c>
       <c r="I43" s="3">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="J43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K43" s="3">
         <v>6600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,44 +2289,47 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16100</v>
+        <v>17900</v>
       </c>
       <c r="E44" s="3">
-        <v>18000</v>
+        <v>15300</v>
       </c>
       <c r="F44" s="3">
-        <v>14200</v>
+        <v>17200</v>
       </c>
       <c r="G44" s="3">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="H44" s="3">
-        <v>13400</v>
+        <v>14700</v>
       </c>
       <c r="I44" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="J44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K44" s="3">
         <v>10300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2243,44 +2339,47 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17000</v>
+        <v>15300</v>
       </c>
       <c r="E45" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="F45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I45" s="3">
         <v>11900</v>
       </c>
-      <c r="G45" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>19300</v>
-      </c>
       <c r="J45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K45" s="3">
         <v>23000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,44 +2389,47 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>84500</v>
+        <v>82300</v>
       </c>
       <c r="E46" s="3">
-        <v>91000</v>
+        <v>80500</v>
       </c>
       <c r="F46" s="3">
-        <v>90000</v>
+        <v>86700</v>
       </c>
       <c r="G46" s="3">
-        <v>102900</v>
+        <v>85800</v>
       </c>
       <c r="H46" s="3">
-        <v>101500</v>
+        <v>98100</v>
       </c>
       <c r="I46" s="3">
-        <v>107600</v>
+        <v>96700</v>
       </c>
       <c r="J46" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K46" s="3">
         <v>58600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>83300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>43700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,44 +2439,47 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="E47" s="3">
-        <v>13900</v>
+        <v>11500</v>
       </c>
       <c r="F47" s="3">
-        <v>12400</v>
+        <v>13200</v>
       </c>
       <c r="G47" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="H47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K47" s="3">
         <v>10900</v>
       </c>
-      <c r="I47" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>10900</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,44 +2489,47 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="E48" s="3">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="F48" s="3">
-        <v>7600</v>
+        <v>6900</v>
       </c>
       <c r="G48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="H48" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,44 +2539,47 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I49" s="3">
         <v>9700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="J49" s="3">
         <v>9800</v>
       </c>
-      <c r="F49" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,16 +2689,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -2593,23 +2713,23 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2739,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,44 +2789,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113700</v>
+        <v>109900</v>
       </c>
       <c r="E54" s="3">
-        <v>122500</v>
+        <v>108300</v>
       </c>
       <c r="F54" s="3">
-        <v>120700</v>
+        <v>116800</v>
       </c>
       <c r="G54" s="3">
-        <v>131200</v>
+        <v>115100</v>
       </c>
       <c r="H54" s="3">
-        <v>128600</v>
+        <v>125100</v>
       </c>
       <c r="I54" s="3">
-        <v>135000</v>
+        <v>122600</v>
       </c>
       <c r="J54" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K54" s="3">
         <v>92000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,44 +2881,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>20100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K57" s="3">
+        <v>18000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>13300</v>
+      </c>
+      <c r="M57" s="3">
         <v>13800</v>
       </c>
-      <c r="E57" s="3">
-        <v>19800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>21100</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="N57" s="3">
         <v>14900</v>
       </c>
-      <c r="I57" s="3">
-        <v>16200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>18000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>13300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>13800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>14900</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,44 +2929,47 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23600</v>
+        <v>21400</v>
       </c>
       <c r="E58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="M58" s="3">
         <v>23700</v>
       </c>
-      <c r="F58" s="3">
-        <v>19600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>16600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>9500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>19000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>23700</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2845,44 +2979,47 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8800</v>
+        <v>4900</v>
       </c>
       <c r="E59" s="3">
-        <v>5700</v>
+        <v>8400</v>
       </c>
       <c r="F59" s="3">
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="G59" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H59" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="I59" s="3">
-        <v>4800</v>
+        <v>3900</v>
       </c>
       <c r="J59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2892,44 +3029,47 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46100</v>
+        <v>45800</v>
       </c>
       <c r="E60" s="3">
-        <v>49200</v>
+        <v>44000</v>
       </c>
       <c r="F60" s="3">
-        <v>39900</v>
+        <v>46900</v>
       </c>
       <c r="G60" s="3">
-        <v>41800</v>
+        <v>38000</v>
       </c>
       <c r="H60" s="3">
-        <v>31600</v>
+        <v>39800</v>
       </c>
       <c r="I60" s="3">
-        <v>27800</v>
+        <v>30200</v>
       </c>
       <c r="J60" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K60" s="3">
         <v>30500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,44 +3079,47 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26400</v>
+        <v>25600</v>
       </c>
       <c r="E61" s="3">
-        <v>36700</v>
+        <v>25200</v>
       </c>
       <c r="F61" s="3">
-        <v>52900</v>
+        <v>35000</v>
       </c>
       <c r="G61" s="3">
-        <v>60600</v>
+        <v>50400</v>
       </c>
       <c r="H61" s="3">
-        <v>73200</v>
+        <v>57800</v>
       </c>
       <c r="I61" s="3">
-        <v>72800</v>
+        <v>69800</v>
       </c>
       <c r="J61" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K61" s="3">
         <v>76600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2986,43 +3129,46 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K62" s="3">
         <v>4800</v>
       </c>
-      <c r="E62" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2500</v>
       </c>
       <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>2500</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,44 +3329,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84600</v>
+        <v>82700</v>
       </c>
       <c r="E66" s="3">
-        <v>98700</v>
+        <v>80600</v>
       </c>
       <c r="F66" s="3">
-        <v>106000</v>
+        <v>94100</v>
       </c>
       <c r="G66" s="3">
-        <v>114200</v>
+        <v>101100</v>
       </c>
       <c r="H66" s="3">
-        <v>116500</v>
+        <v>108900</v>
       </c>
       <c r="I66" s="3">
-        <v>112600</v>
+        <v>111100</v>
       </c>
       <c r="J66" s="3">
+        <v>107300</v>
+      </c>
+      <c r="K66" s="3">
         <v>118400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>94300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3358,20 +3526,20 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>445400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>347000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>305700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>267900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,44 +3599,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-421400</v>
+        <v>-403500</v>
       </c>
       <c r="E72" s="3">
-        <v>-418100</v>
+        <v>-401700</v>
       </c>
       <c r="F72" s="3">
-        <v>-414000</v>
+        <v>-398600</v>
       </c>
       <c r="G72" s="3">
-        <v>-407700</v>
+        <v>-394700</v>
       </c>
       <c r="H72" s="3">
-        <v>-402600</v>
+        <v>-388600</v>
       </c>
       <c r="I72" s="3">
-        <v>-396600</v>
+        <v>-383800</v>
       </c>
       <c r="J72" s="3">
+        <v>-378100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-413100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-310100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-315300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-303300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3649,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,44 +3799,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29100</v>
+        <v>27200</v>
       </c>
       <c r="E76" s="3">
-        <v>23800</v>
+        <v>27700</v>
       </c>
       <c r="F76" s="3">
-        <v>14700</v>
+        <v>22700</v>
       </c>
       <c r="G76" s="3">
-        <v>16900</v>
+        <v>14000</v>
       </c>
       <c r="H76" s="3">
-        <v>12100</v>
+        <v>16200</v>
       </c>
       <c r="I76" s="3">
-        <v>22400</v>
+        <v>11500</v>
       </c>
       <c r="J76" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-471800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-322600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-328400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-301700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3300</v>
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4100</v>
+        <v>-3100</v>
       </c>
       <c r="F81" s="3">
-        <v>-6300</v>
+        <v>-3900</v>
       </c>
       <c r="G81" s="3">
-        <v>-5100</v>
+        <v>-6000</v>
       </c>
       <c r="H81" s="3">
-        <v>-6000</v>
+        <v>-4900</v>
       </c>
       <c r="I81" s="3">
-        <v>16500</v>
+        <v>-5700</v>
       </c>
       <c r="J81" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-48200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-72900</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4026,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3845,38 +4044,41 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,8 +4324,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4127,38 +4344,41 @@
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>-36100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-34500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,8 +4396,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4193,17 +4414,17 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>-200</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -4212,19 +4433,22 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,8 +4544,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4334,38 +4564,41 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-26900</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-25700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,8 +4814,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4588,38 +4834,41 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>94700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>90300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>47900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>46200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>34600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4635,38 +4884,41 @@
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4682,34 +4934,37 @@
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>29800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>28400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>34100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,246 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>43900</v>
+        <v>39400</v>
       </c>
       <c r="E8" s="3">
-        <v>34800</v>
+        <v>45300</v>
       </c>
       <c r="F8" s="3">
-        <v>46300</v>
+        <v>35900</v>
       </c>
       <c r="G8" s="3">
-        <v>39300</v>
+        <v>47800</v>
       </c>
       <c r="H8" s="3">
-        <v>44800</v>
+        <v>40500</v>
       </c>
       <c r="I8" s="3">
-        <v>32100</v>
+        <v>46200</v>
       </c>
       <c r="J8" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K8" s="3">
         <v>43600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>96100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>98200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>34000</v>
+        <v>31800</v>
       </c>
       <c r="E9" s="3">
-        <v>27300</v>
+        <v>35100</v>
       </c>
       <c r="F9" s="3">
-        <v>35600</v>
+        <v>28200</v>
       </c>
       <c r="G9" s="3">
-        <v>31500</v>
+        <v>36700</v>
       </c>
       <c r="H9" s="3">
-        <v>37000</v>
+        <v>32500</v>
       </c>
       <c r="I9" s="3">
-        <v>25800</v>
+        <v>38100</v>
       </c>
       <c r="J9" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K9" s="3">
         <v>35700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>76000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>73100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9800</v>
+        <v>7700</v>
       </c>
       <c r="E10" s="3">
-        <v>7500</v>
+        <v>10200</v>
       </c>
       <c r="F10" s="3">
-        <v>10700</v>
+        <v>7700</v>
       </c>
       <c r="G10" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K10" s="3">
         <v>7800</v>
       </c>
-      <c r="H10" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>7800</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1027,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,29 +1059,32 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45200</v>
+        <v>42300</v>
       </c>
       <c r="E17" s="3">
-        <v>38200</v>
+        <v>46700</v>
       </c>
       <c r="F17" s="3">
-        <v>50600</v>
+        <v>39400</v>
       </c>
       <c r="G17" s="3">
-        <v>45000</v>
+        <v>52300</v>
       </c>
       <c r="H17" s="3">
-        <v>50600</v>
+        <v>46400</v>
       </c>
       <c r="I17" s="3">
-        <v>37100</v>
+        <v>52200</v>
       </c>
       <c r="J17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K17" s="3">
         <v>56600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>113100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>123200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-3400</v>
-      </c>
       <c r="F18" s="3">
-        <v>-4400</v>
+        <v>-3500</v>
       </c>
       <c r="G18" s="3">
-        <v>-5700</v>
+        <v>-4500</v>
       </c>
       <c r="H18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-25000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,58 +1280,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>800</v>
-      </c>
       <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1317,138 +1354,147 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-25800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
-        <v>500</v>
-      </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
-        <v>800</v>
-      </c>
       <c r="H22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J22" s="3">
         <v>1000</v>
       </c>
       <c r="K22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-3100</v>
-      </c>
       <c r="F23" s="3">
-        <v>-4000</v>
+        <v>-3200</v>
       </c>
       <c r="G23" s="3">
-        <v>-6200</v>
+        <v>-4100</v>
       </c>
       <c r="H23" s="3">
-        <v>-5400</v>
+        <v>-6400</v>
       </c>
       <c r="I23" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="J23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-27500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
@@ -1474,11 +1520,11 @@
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1494,11 +1540,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1700</v>
+        <v>-2500</v>
       </c>
       <c r="E26" s="3">
-        <v>-3100</v>
+        <v>-1800</v>
       </c>
       <c r="F26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1700</v>
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
-        <v>-3100</v>
+        <v>-1800</v>
       </c>
       <c r="F27" s="3">
-        <v>-3900</v>
+        <v>-3200</v>
       </c>
       <c r="G27" s="3">
-        <v>-6000</v>
+        <v>-4000</v>
       </c>
       <c r="H27" s="3">
-        <v>-4900</v>
+        <v>-6200</v>
       </c>
       <c r="I27" s="3">
-        <v>-5700</v>
+        <v>-5000</v>
       </c>
       <c r="J27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K27" s="3">
         <v>15700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-48200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-72900</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,108 +1914,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-800</v>
-      </c>
       <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1700</v>
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
-        <v>-3100</v>
+        <v>-1800</v>
       </c>
       <c r="F33" s="3">
-        <v>-3900</v>
+        <v>-3200</v>
       </c>
       <c r="G33" s="3">
-        <v>-6000</v>
+        <v>-4000</v>
       </c>
       <c r="H33" s="3">
-        <v>-4900</v>
+        <v>-6200</v>
       </c>
       <c r="I33" s="3">
-        <v>-5700</v>
+        <v>-5000</v>
       </c>
       <c r="J33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K33" s="3">
         <v>15700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-48200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-72900</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1700</v>
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
-        <v>-3100</v>
+        <v>-1800</v>
       </c>
       <c r="F35" s="3">
-        <v>-3900</v>
+        <v>-3200</v>
       </c>
       <c r="G35" s="3">
-        <v>-6000</v>
+        <v>-4000</v>
       </c>
       <c r="H35" s="3">
-        <v>-4900</v>
+        <v>-6200</v>
       </c>
       <c r="I35" s="3">
-        <v>-5700</v>
+        <v>-5000</v>
       </c>
       <c r="J35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K35" s="3">
         <v>15700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-48200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-72900</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,47 +2228,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17900</v>
+        <v>12200</v>
       </c>
       <c r="E41" s="3">
-        <v>22700</v>
+        <v>18500</v>
       </c>
       <c r="F41" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="G41" s="3">
-        <v>29300</v>
+        <v>25300</v>
       </c>
       <c r="H41" s="3">
-        <v>40000</v>
+        <v>30200</v>
       </c>
       <c r="I41" s="3">
-        <v>40700</v>
+        <v>41200</v>
       </c>
       <c r="J41" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K41" s="3">
         <v>50600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,35 +2279,38 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="E42" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="F42" s="3">
-        <v>19400</v>
+        <v>18400</v>
       </c>
       <c r="G42" s="3">
-        <v>18000</v>
+        <v>20100</v>
       </c>
       <c r="H42" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="I42" s="3">
-        <v>23500</v>
+        <v>18500</v>
       </c>
       <c r="J42" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K42" s="3">
         <v>15500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,53 +2326,56 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="E43" s="3">
-        <v>8500</v>
+        <v>15100</v>
       </c>
       <c r="F43" s="3">
-        <v>10800</v>
+        <v>8800</v>
       </c>
       <c r="G43" s="3">
-        <v>13700</v>
+        <v>11100</v>
       </c>
       <c r="H43" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="I43" s="3">
-        <v>8000</v>
+        <v>15600</v>
       </c>
       <c r="J43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K43" s="3">
         <v>6100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,47 +2385,50 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17900</v>
+        <v>15400</v>
       </c>
       <c r="E44" s="3">
-        <v>15300</v>
+        <v>18500</v>
       </c>
       <c r="F44" s="3">
-        <v>17200</v>
+        <v>15800</v>
       </c>
       <c r="G44" s="3">
-        <v>13500</v>
+        <v>17700</v>
       </c>
       <c r="H44" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="I44" s="3">
-        <v>12700</v>
+        <v>15200</v>
       </c>
       <c r="J44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K44" s="3">
         <v>11900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2342,47 +2438,50 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
-        <v>16200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>11300</v>
-      </c>
       <c r="H45" s="3">
-        <v>10400</v>
+        <v>11700</v>
       </c>
       <c r="I45" s="3">
-        <v>11900</v>
+        <v>10700</v>
       </c>
       <c r="J45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K45" s="3">
         <v>18400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,47 +2491,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>82300</v>
+        <v>74500</v>
       </c>
       <c r="E46" s="3">
-        <v>80500</v>
+        <v>84900</v>
       </c>
       <c r="F46" s="3">
-        <v>86700</v>
+        <v>83100</v>
       </c>
       <c r="G46" s="3">
-        <v>85800</v>
+        <v>89500</v>
       </c>
       <c r="H46" s="3">
-        <v>98100</v>
+        <v>88600</v>
       </c>
       <c r="I46" s="3">
-        <v>96700</v>
+        <v>101200</v>
       </c>
       <c r="J46" s="3">
+        <v>99800</v>
+      </c>
+      <c r="K46" s="3">
         <v>102600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>58600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>83300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>43700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2442,47 +2544,50 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I47" s="3">
         <v>11400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="J47" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N47" s="3">
         <v>11500</v>
       </c>
-      <c r="F47" s="3">
-        <v>13200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>10400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>10900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>11500</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2597,50 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E48" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="F48" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="G48" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="H48" s="3">
-        <v>5700</v>
+        <v>7500</v>
       </c>
       <c r="I48" s="3">
-        <v>5200</v>
+        <v>5900</v>
       </c>
       <c r="J48" s="3">
         <v>5400</v>
       </c>
       <c r="K48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,47 +2650,50 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E49" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F49" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G49" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="H49" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="I49" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J49" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,8 +2703,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,19 +2809,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -2716,23 +2836,23 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2742,8 +2862,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,47 +2915,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109900</v>
+        <v>104700</v>
       </c>
       <c r="E54" s="3">
-        <v>108300</v>
+        <v>113400</v>
       </c>
       <c r="F54" s="3">
-        <v>116800</v>
+        <v>111800</v>
       </c>
       <c r="G54" s="3">
-        <v>115100</v>
+        <v>120500</v>
       </c>
       <c r="H54" s="3">
-        <v>125100</v>
+        <v>118700</v>
       </c>
       <c r="I54" s="3">
-        <v>122600</v>
+        <v>129000</v>
       </c>
       <c r="J54" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K54" s="3">
         <v>128700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,8 +2968,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,47 +3012,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G57" s="3">
         <v>19500</v>
       </c>
-      <c r="E57" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>18900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>15300</v>
-      </c>
       <c r="H57" s="3">
-        <v>20100</v>
+        <v>15700</v>
       </c>
       <c r="I57" s="3">
-        <v>14200</v>
+        <v>20800</v>
       </c>
       <c r="J57" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K57" s="3">
         <v>15500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,47 +3063,50 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21400</v>
+        <v>20500</v>
       </c>
       <c r="E58" s="3">
-        <v>22500</v>
+        <v>22100</v>
       </c>
       <c r="F58" s="3">
-        <v>22600</v>
+        <v>23200</v>
       </c>
       <c r="G58" s="3">
-        <v>18700</v>
+        <v>23300</v>
       </c>
       <c r="H58" s="3">
-        <v>15800</v>
+        <v>19300</v>
       </c>
       <c r="I58" s="3">
-        <v>12000</v>
+        <v>16300</v>
       </c>
       <c r="J58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K58" s="3">
         <v>6500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,47 +3116,50 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E59" s="3">
-        <v>8400</v>
+        <v>5100</v>
       </c>
       <c r="F59" s="3">
-        <v>5400</v>
+        <v>8700</v>
       </c>
       <c r="G59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3900</v>
-      </c>
       <c r="J59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,47 +3169,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45800</v>
+        <v>40300</v>
       </c>
       <c r="E60" s="3">
-        <v>44000</v>
+        <v>47300</v>
       </c>
       <c r="F60" s="3">
-        <v>46900</v>
+        <v>45400</v>
       </c>
       <c r="G60" s="3">
-        <v>38000</v>
+        <v>48400</v>
       </c>
       <c r="H60" s="3">
-        <v>39800</v>
+        <v>39200</v>
       </c>
       <c r="I60" s="3">
-        <v>30200</v>
+        <v>41100</v>
       </c>
       <c r="J60" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K60" s="3">
         <v>26500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3082,47 +3222,50 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25600</v>
+        <v>17900</v>
       </c>
       <c r="E61" s="3">
-        <v>25200</v>
+        <v>26500</v>
       </c>
       <c r="F61" s="3">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="G61" s="3">
-        <v>50400</v>
+        <v>36100</v>
       </c>
       <c r="H61" s="3">
-        <v>57800</v>
+        <v>52000</v>
       </c>
       <c r="I61" s="3">
-        <v>69800</v>
+        <v>59600</v>
       </c>
       <c r="J61" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K61" s="3">
         <v>69400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>76600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3132,46 +3275,49 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2500</v>
       </c>
       <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>2500</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3182,8 +3328,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,47 +3487,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82700</v>
+        <v>69900</v>
       </c>
       <c r="E66" s="3">
-        <v>80600</v>
+        <v>85300</v>
       </c>
       <c r="F66" s="3">
-        <v>94100</v>
+        <v>83200</v>
       </c>
       <c r="G66" s="3">
-        <v>101100</v>
+        <v>97100</v>
       </c>
       <c r="H66" s="3">
-        <v>108900</v>
+        <v>104300</v>
       </c>
       <c r="I66" s="3">
-        <v>111100</v>
+        <v>112400</v>
       </c>
       <c r="J66" s="3">
+        <v>114600</v>
+      </c>
+      <c r="K66" s="3">
         <v>107300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>118400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>94300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>99600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3540,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,20 +3697,20 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>445400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>347000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>305700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>267900</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,47 +3773,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-403500</v>
+        <v>-418700</v>
       </c>
       <c r="E72" s="3">
-        <v>-401700</v>
+        <v>-416300</v>
       </c>
       <c r="F72" s="3">
-        <v>-398600</v>
+        <v>-414500</v>
       </c>
       <c r="G72" s="3">
-        <v>-394700</v>
+        <v>-411200</v>
       </c>
       <c r="H72" s="3">
-        <v>-388600</v>
+        <v>-407200</v>
       </c>
       <c r="I72" s="3">
-        <v>-383800</v>
+        <v>-401000</v>
       </c>
       <c r="J72" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-378100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-413100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-310100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-315300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-303300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3826,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,47 +3985,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27200</v>
+        <v>34900</v>
       </c>
       <c r="E76" s="3">
-        <v>27700</v>
+        <v>28100</v>
       </c>
       <c r="F76" s="3">
-        <v>22700</v>
+        <v>28600</v>
       </c>
       <c r="G76" s="3">
-        <v>14000</v>
+        <v>23400</v>
       </c>
       <c r="H76" s="3">
-        <v>16200</v>
+        <v>14400</v>
       </c>
       <c r="I76" s="3">
-        <v>11500</v>
+        <v>16700</v>
       </c>
       <c r="J76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K76" s="3">
         <v>21400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-471800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-322600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-328400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-301700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3852,8 +4038,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1700</v>
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
-        <v>-3100</v>
+        <v>-1800</v>
       </c>
       <c r="F81" s="3">
-        <v>-3900</v>
+        <v>-3200</v>
       </c>
       <c r="G81" s="3">
-        <v>-6000</v>
+        <v>-4000</v>
       </c>
       <c r="H81" s="3">
-        <v>-4900</v>
+        <v>-6200</v>
       </c>
       <c r="I81" s="3">
-        <v>-5700</v>
+        <v>-5000</v>
       </c>
       <c r="J81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K81" s="3">
         <v>15700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-48200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-72900</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4225,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4047,38 +4246,41 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,8 +4541,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4347,38 +4564,41 @@
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-35500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-7900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,8 +4617,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4417,17 +4638,17 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>-200</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -4436,19 +4657,22 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,8 +4774,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4567,38 +4797,41 @@
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-26500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,8 +5060,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4837,38 +5083,41 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
-        <v>90300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>93100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>47900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>46200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>34600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4887,38 +5136,41 @@
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4937,34 +5189,37 @@
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
-        <v>28400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
+        <v>29300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>34100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="E8" s="3">
-        <v>45300</v>
+        <v>44800</v>
       </c>
       <c r="F8" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="G8" s="3">
-        <v>47800</v>
+        <v>47300</v>
       </c>
       <c r="H8" s="3">
-        <v>40500</v>
+        <v>40100</v>
       </c>
       <c r="I8" s="3">
-        <v>46200</v>
+        <v>45700</v>
       </c>
       <c r="J8" s="3">
-        <v>33100</v>
+        <v>32800</v>
       </c>
       <c r="K8" s="3">
         <v>43600</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31800</v>
+        <v>31500</v>
       </c>
       <c r="E9" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="F9" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="G9" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="H9" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="I9" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="J9" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="K9" s="3">
         <v>35700</v>
@@ -856,25 +856,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E10" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G10" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H10" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I10" s="3">
         <v>8000</v>
       </c>
-      <c r="I10" s="3">
-        <v>8100</v>
-      </c>
       <c r="J10" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="K10" s="3">
         <v>7800</v>
@@ -1160,25 +1160,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42300</v>
+        <v>41800</v>
       </c>
       <c r="E17" s="3">
-        <v>46700</v>
+        <v>46200</v>
       </c>
       <c r="F17" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="G17" s="3">
-        <v>52300</v>
+        <v>51700</v>
       </c>
       <c r="H17" s="3">
-        <v>46400</v>
+        <v>45900</v>
       </c>
       <c r="I17" s="3">
-        <v>52200</v>
+        <v>51700</v>
       </c>
       <c r="J17" s="3">
-        <v>38300</v>
+        <v>37900</v>
       </c>
       <c r="K17" s="3">
         <v>56600</v>
@@ -1222,16 +1222,16 @@
         <v>-3500</v>
       </c>
       <c r="G18" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="H18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
-        <v>-6000</v>
-      </c>
       <c r="J18" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="K18" s="3">
         <v>-13000</v>
@@ -1293,7 +1293,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G20" s="3">
         <v>1100</v>
@@ -1605,25 +1605,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
         <v>-1800</v>
       </c>
       <c r="F26" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G26" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="H26" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="I26" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J26" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K26" s="3">
         <v>-11400</v>
@@ -1676,7 +1676,7 @@
         <v>-5000</v>
       </c>
       <c r="J27" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K27" s="3">
         <v>15700</v>
@@ -1929,7 +1929,7 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G32" s="3">
         <v>-1100</v>
@@ -1994,7 +1994,7 @@
         <v>-5000</v>
       </c>
       <c r="J33" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K33" s="3">
         <v>15700</v>
@@ -2100,7 +2100,7 @@
         <v>-5000</v>
       </c>
       <c r="J35" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K35" s="3">
         <v>15700</v>
@@ -2235,25 +2235,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="E41" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="F41" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="G41" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="H41" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="I41" s="3">
-        <v>41200</v>
+        <v>40800</v>
       </c>
       <c r="J41" s="3">
-        <v>42000</v>
+        <v>41500</v>
       </c>
       <c r="K41" s="3">
         <v>50600</v>
@@ -2288,25 +2288,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="E42" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="F42" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H42" s="3">
         <v>18400</v>
       </c>
-      <c r="G42" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>18600</v>
-      </c>
       <c r="I42" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="J42" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="K42" s="3">
         <v>15500</v>
@@ -2341,25 +2341,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="E43" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="F43" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G43" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="H43" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="I43" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="J43" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="K43" s="3">
         <v>6100</v>
@@ -2394,25 +2394,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="E44" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="F44" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="G44" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="H44" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="I44" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="J44" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="K44" s="3">
         <v>11900</v>
@@ -2447,25 +2447,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="E45" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="F45" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="G45" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="H45" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="I45" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J45" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="K45" s="3">
         <v>18400</v>
@@ -2500,25 +2500,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>74500</v>
+        <v>73800</v>
       </c>
       <c r="E46" s="3">
-        <v>84900</v>
+        <v>84000</v>
       </c>
       <c r="F46" s="3">
-        <v>83100</v>
+        <v>82200</v>
       </c>
       <c r="G46" s="3">
-        <v>89500</v>
+        <v>88600</v>
       </c>
       <c r="H46" s="3">
-        <v>88600</v>
+        <v>87700</v>
       </c>
       <c r="I46" s="3">
-        <v>101200</v>
+        <v>100200</v>
       </c>
       <c r="J46" s="3">
-        <v>99800</v>
+        <v>98800</v>
       </c>
       <c r="K46" s="3">
         <v>102600</v>
@@ -2553,25 +2553,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="E47" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="F47" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="G47" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="H47" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="I47" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="J47" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="K47" s="3">
         <v>10400</v>
@@ -2606,25 +2606,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="E48" s="3">
         <v>6700</v>
       </c>
       <c r="F48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G48" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="H48" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="J48" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K48" s="3">
         <v>5400</v>
@@ -2659,25 +2659,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="E49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F49" s="3">
         <v>9400</v>
       </c>
-      <c r="F49" s="3">
-        <v>9500</v>
-      </c>
       <c r="G49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H49" s="3">
         <v>9700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>10000</v>
       </c>
       <c r="K49" s="3">
         <v>9800</v>
@@ -2924,25 +2924,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>104700</v>
+        <v>103700</v>
       </c>
       <c r="E54" s="3">
-        <v>113400</v>
+        <v>112200</v>
       </c>
       <c r="F54" s="3">
-        <v>111800</v>
+        <v>110600</v>
       </c>
       <c r="G54" s="3">
-        <v>120500</v>
+        <v>119200</v>
       </c>
       <c r="H54" s="3">
-        <v>118700</v>
+        <v>117500</v>
       </c>
       <c r="I54" s="3">
-        <v>129000</v>
+        <v>127700</v>
       </c>
       <c r="J54" s="3">
-        <v>126500</v>
+        <v>125200</v>
       </c>
       <c r="K54" s="3">
         <v>128700</v>
@@ -3019,25 +3019,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="E57" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="F57" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="G57" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="H57" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="I57" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="J57" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="K57" s="3">
         <v>15500</v>
@@ -3072,25 +3072,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20500</v>
+        <v>20200</v>
       </c>
       <c r="E58" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="F58" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="G58" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="H58" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="I58" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="J58" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="K58" s="3">
         <v>6500</v>
@@ -3128,22 +3128,22 @@
         <v>4800</v>
       </c>
       <c r="E59" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F59" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G59" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H59" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I59" s="3">
         <v>4000</v>
       </c>
       <c r="J59" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K59" s="3">
         <v>4600</v>
@@ -3178,25 +3178,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40300</v>
+        <v>39900</v>
       </c>
       <c r="E60" s="3">
-        <v>47300</v>
+        <v>46800</v>
       </c>
       <c r="F60" s="3">
-        <v>45400</v>
+        <v>44900</v>
       </c>
       <c r="G60" s="3">
-        <v>48400</v>
+        <v>47900</v>
       </c>
       <c r="H60" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="I60" s="3">
-        <v>41100</v>
+        <v>40700</v>
       </c>
       <c r="J60" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="K60" s="3">
         <v>26500</v>
@@ -3231,25 +3231,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="E61" s="3">
-        <v>26500</v>
+        <v>26200</v>
       </c>
       <c r="F61" s="3">
-        <v>26000</v>
+        <v>25700</v>
       </c>
       <c r="G61" s="3">
-        <v>36100</v>
+        <v>35700</v>
       </c>
       <c r="H61" s="3">
-        <v>52000</v>
+        <v>51500</v>
       </c>
       <c r="I61" s="3">
-        <v>59600</v>
+        <v>59000</v>
       </c>
       <c r="J61" s="3">
-        <v>72000</v>
+        <v>71300</v>
       </c>
       <c r="K61" s="3">
         <v>69400</v>
@@ -3287,13 +3287,13 @@
         <v>4600</v>
       </c>
       <c r="E62" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F62" s="3">
         <v>4700</v>
       </c>
       <c r="G62" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H62" s="3">
         <v>5900</v>
@@ -3302,7 +3302,7 @@
         <v>4400</v>
       </c>
       <c r="J62" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K62" s="3">
         <v>4300</v>
@@ -3496,25 +3496,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69900</v>
+        <v>69200</v>
       </c>
       <c r="E66" s="3">
-        <v>85300</v>
+        <v>84400</v>
       </c>
       <c r="F66" s="3">
-        <v>83200</v>
+        <v>82300</v>
       </c>
       <c r="G66" s="3">
-        <v>97100</v>
+        <v>96100</v>
       </c>
       <c r="H66" s="3">
-        <v>104300</v>
+        <v>103200</v>
       </c>
       <c r="I66" s="3">
-        <v>112400</v>
+        <v>111200</v>
       </c>
       <c r="J66" s="3">
-        <v>114600</v>
+        <v>113400</v>
       </c>
       <c r="K66" s="3">
         <v>107300</v>
@@ -3782,25 +3782,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-418700</v>
+        <v>-414400</v>
       </c>
       <c r="E72" s="3">
-        <v>-416300</v>
+        <v>-412000</v>
       </c>
       <c r="F72" s="3">
-        <v>-414500</v>
+        <v>-410200</v>
       </c>
       <c r="G72" s="3">
-        <v>-411200</v>
+        <v>-407000</v>
       </c>
       <c r="H72" s="3">
-        <v>-407200</v>
+        <v>-403000</v>
       </c>
       <c r="I72" s="3">
-        <v>-401000</v>
+        <v>-396900</v>
       </c>
       <c r="J72" s="3">
-        <v>-395900</v>
+        <v>-391900</v>
       </c>
       <c r="K72" s="3">
         <v>-378100</v>
@@ -3994,25 +3994,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34900</v>
+        <v>34500</v>
       </c>
       <c r="E76" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="F76" s="3">
-        <v>28600</v>
+        <v>28300</v>
       </c>
       <c r="G76" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="H76" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="I76" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="J76" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="K76" s="3">
         <v>21400</v>
@@ -4176,7 +4176,7 @@
         <v>-5000</v>
       </c>
       <c r="J81" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="K81" s="3">
         <v>15700</v>
@@ -4568,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>-35500</v>
+        <v>-35200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -4623,26 +4623,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4801,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>-26500</v>
+        <v>-26200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -5087,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>93100</v>
+        <v>92200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -5193,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>BQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,259 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>39000</v>
+        <v>69200</v>
       </c>
       <c r="E8" s="3">
-        <v>44800</v>
+        <v>81200</v>
       </c>
       <c r="F8" s="3">
-        <v>35500</v>
+        <v>43400</v>
       </c>
       <c r="G8" s="3">
-        <v>47300</v>
+        <v>34400</v>
       </c>
       <c r="H8" s="3">
-        <v>40100</v>
+        <v>45800</v>
       </c>
       <c r="I8" s="3">
-        <v>45700</v>
+        <v>38900</v>
       </c>
       <c r="J8" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K8" s="3">
         <v>32800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>96100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>98200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31500</v>
+        <v>54100</v>
       </c>
       <c r="E9" s="3">
-        <v>34700</v>
+        <v>64200</v>
       </c>
       <c r="F9" s="3">
-        <v>27900</v>
+        <v>33700</v>
       </c>
       <c r="G9" s="3">
-        <v>36300</v>
+        <v>27000</v>
       </c>
       <c r="H9" s="3">
-        <v>32200</v>
+        <v>35200</v>
       </c>
       <c r="I9" s="3">
-        <v>37700</v>
+        <v>31200</v>
       </c>
       <c r="J9" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K9" s="3">
         <v>26300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>76000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>73100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7600</v>
+        <v>15100</v>
       </c>
       <c r="E10" s="3">
-        <v>10000</v>
+        <v>17100</v>
       </c>
       <c r="F10" s="3">
-        <v>7600</v>
+        <v>9700</v>
       </c>
       <c r="G10" s="3">
-        <v>10900</v>
+        <v>7400</v>
       </c>
       <c r="H10" s="3">
-        <v>7900</v>
+        <v>10600</v>
       </c>
       <c r="I10" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="J10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +937,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -977,8 +991,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,13 +1047,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>5600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1062,29 +1082,32 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,8 +1159,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41800</v>
+        <v>79500</v>
       </c>
       <c r="E17" s="3">
-        <v>46200</v>
+        <v>85300</v>
       </c>
       <c r="F17" s="3">
-        <v>39000</v>
+        <v>44800</v>
       </c>
       <c r="G17" s="3">
-        <v>51700</v>
+        <v>37800</v>
       </c>
       <c r="H17" s="3">
-        <v>45900</v>
+        <v>50100</v>
       </c>
       <c r="I17" s="3">
-        <v>51700</v>
+        <v>44500</v>
       </c>
       <c r="J17" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K17" s="3">
         <v>37900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>113100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>123200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="P18" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="R18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-25000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,61 +1314,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>800</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1357,152 +1394,161 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-5000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-25800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
-        <v>900</v>
-      </c>
       <c r="I22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J22" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
       </c>
       <c r="L22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2500</v>
+        <v>-10600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1800</v>
+        <v>-4100</v>
       </c>
       <c r="F23" s="3">
-        <v>-3200</v>
+        <v>-1700</v>
       </c>
       <c r="G23" s="3">
-        <v>-4100</v>
+        <v>-3100</v>
       </c>
       <c r="H23" s="3">
-        <v>-6400</v>
+        <v>-3900</v>
       </c>
       <c r="I23" s="3">
-        <v>-5600</v>
+        <v>-6200</v>
       </c>
       <c r="J23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-27500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1514,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
@@ -1523,11 +1569,11 @@
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1543,11 +1589,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2400</v>
+        <v>-10500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1800</v>
+        <v>-4100</v>
       </c>
       <c r="F26" s="3">
-        <v>-3100</v>
+        <v>-1700</v>
       </c>
       <c r="G26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-27400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2400</v>
+        <v>-10200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1800</v>
+        <v>-4100</v>
       </c>
       <c r="F27" s="3">
-        <v>-3200</v>
+        <v>-1700</v>
       </c>
       <c r="G27" s="3">
-        <v>-4000</v>
+        <v>-3100</v>
       </c>
       <c r="H27" s="3">
-        <v>-6200</v>
+        <v>-3800</v>
       </c>
       <c r="I27" s="3">
-        <v>-5000</v>
+        <v>-6000</v>
       </c>
       <c r="J27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-48200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-72900</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1872,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,114 +1984,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2400</v>
+        <v>-10200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1800</v>
+        <v>-4100</v>
       </c>
       <c r="F33" s="3">
-        <v>-3200</v>
+        <v>-1700</v>
       </c>
       <c r="G33" s="3">
-        <v>-4000</v>
+        <v>-3100</v>
       </c>
       <c r="H33" s="3">
-        <v>-6200</v>
+        <v>-3800</v>
       </c>
       <c r="I33" s="3">
-        <v>-5000</v>
+        <v>-6000</v>
       </c>
       <c r="J33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-48200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-72900</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2400</v>
+        <v>-10200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1800</v>
+        <v>-4100</v>
       </c>
       <c r="F35" s="3">
-        <v>-3200</v>
+        <v>-1700</v>
       </c>
       <c r="G35" s="3">
-        <v>-4000</v>
+        <v>-3100</v>
       </c>
       <c r="H35" s="3">
-        <v>-6200</v>
+        <v>-3800</v>
       </c>
       <c r="I35" s="3">
-        <v>-5000</v>
+        <v>-6000</v>
       </c>
       <c r="J35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-48200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-72900</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,50 +2315,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="E41" s="3">
-        <v>18300</v>
+        <v>11700</v>
       </c>
       <c r="F41" s="3">
-        <v>23100</v>
+        <v>17700</v>
       </c>
       <c r="G41" s="3">
-        <v>25000</v>
+        <v>22400</v>
       </c>
       <c r="H41" s="3">
-        <v>29900</v>
+        <v>24300</v>
       </c>
       <c r="I41" s="3">
-        <v>40800</v>
+        <v>29000</v>
       </c>
       <c r="J41" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K41" s="3">
         <v>41500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>47100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2282,38 +2369,41 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>17600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I42" s="3">
         <v>17800</v>
       </c>
-      <c r="E42" s="3">
-        <v>16900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>18200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>19900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>18400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>18300</v>
-      </c>
       <c r="J42" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K42" s="3">
         <v>24000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,56 +2419,59 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F43" s="3">
         <v>14400</v>
       </c>
-      <c r="E43" s="3">
-        <v>14900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>8700</v>
-      </c>
       <c r="G43" s="3">
-        <v>11000</v>
+        <v>8400</v>
       </c>
       <c r="H43" s="3">
-        <v>14000</v>
+        <v>10700</v>
       </c>
       <c r="I43" s="3">
-        <v>15400</v>
+        <v>13600</v>
       </c>
       <c r="J43" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K43" s="3">
         <v>8100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,50 +2481,53 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15200</v>
+        <v>11200</v>
       </c>
       <c r="E44" s="3">
-        <v>18300</v>
+        <v>14800</v>
       </c>
       <c r="F44" s="3">
-        <v>15600</v>
+        <v>17700</v>
       </c>
       <c r="G44" s="3">
-        <v>17500</v>
+        <v>15100</v>
       </c>
       <c r="H44" s="3">
-        <v>13800</v>
+        <v>17000</v>
       </c>
       <c r="I44" s="3">
-        <v>15000</v>
+        <v>13400</v>
       </c>
       <c r="J44" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K44" s="3">
         <v>13000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,50 +2537,53 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14300</v>
+        <v>10900</v>
       </c>
       <c r="E45" s="3">
-        <v>15700</v>
+        <v>13800</v>
       </c>
       <c r="F45" s="3">
-        <v>16600</v>
+        <v>15200</v>
       </c>
       <c r="G45" s="3">
-        <v>15200</v>
+        <v>16100</v>
       </c>
       <c r="H45" s="3">
-        <v>11600</v>
+        <v>14700</v>
       </c>
       <c r="I45" s="3">
-        <v>10600</v>
+        <v>11200</v>
       </c>
       <c r="J45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K45" s="3">
         <v>12100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,50 +2593,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>73800</v>
+        <v>56000</v>
       </c>
       <c r="E46" s="3">
-        <v>84000</v>
+        <v>71500</v>
       </c>
       <c r="F46" s="3">
-        <v>82200</v>
+        <v>81400</v>
       </c>
       <c r="G46" s="3">
-        <v>88600</v>
+        <v>79700</v>
       </c>
       <c r="H46" s="3">
-        <v>87700</v>
+        <v>85800</v>
       </c>
       <c r="I46" s="3">
-        <v>100200</v>
+        <v>85000</v>
       </c>
       <c r="J46" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K46" s="3">
         <v>98800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>102600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>58600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>43700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,50 +2649,53 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12800</v>
+        <v>10800</v>
       </c>
       <c r="E47" s="3">
-        <v>11600</v>
+        <v>12400</v>
       </c>
       <c r="F47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I47" s="3">
         <v>11700</v>
       </c>
-      <c r="G47" s="3">
-        <v>13500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>12100</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M47" s="3">
+        <v>10900</v>
+      </c>
+      <c r="N47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="P47" s="3">
         <v>11300</v>
       </c>
-      <c r="J47" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K47" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>10900</v>
-      </c>
-      <c r="M47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>11500</v>
-      </c>
-      <c r="O47" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2600,50 +2705,53 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F48" s="3">
         <v>6500</v>
       </c>
-      <c r="E48" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6600</v>
-      </c>
       <c r="G48" s="3">
-        <v>7000</v>
+        <v>6400</v>
       </c>
       <c r="H48" s="3">
-        <v>7400</v>
+        <v>6800</v>
       </c>
       <c r="I48" s="3">
-        <v>5800</v>
+        <v>7200</v>
       </c>
       <c r="J48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,50 +2761,53 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G49" s="3">
         <v>9100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>9300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>9400</v>
       </c>
-      <c r="G49" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>9700</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K49" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L49" s="3">
         <v>9800</v>
       </c>
-      <c r="J49" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>9800</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,8 +2817,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,22 +2929,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -2839,23 +2959,23 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +2985,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,50 +3041,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103700</v>
+        <v>74500</v>
       </c>
       <c r="E54" s="3">
-        <v>112200</v>
+        <v>100500</v>
       </c>
       <c r="F54" s="3">
-        <v>110600</v>
+        <v>108800</v>
       </c>
       <c r="G54" s="3">
-        <v>119200</v>
+        <v>107200</v>
       </c>
       <c r="H54" s="3">
-        <v>117500</v>
+        <v>115600</v>
       </c>
       <c r="I54" s="3">
-        <v>127700</v>
+        <v>113900</v>
       </c>
       <c r="J54" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K54" s="3">
         <v>125200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>128700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2971,8 +3097,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,50 +3143,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>15500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>18000</v>
+      </c>
+      <c r="N57" s="3">
+        <v>13300</v>
+      </c>
+      <c r="O57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="P57" s="3">
         <v>14900</v>
       </c>
-      <c r="E57" s="3">
-        <v>19900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>13400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>20500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>14500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>15500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>18000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>13300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>13800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>14900</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,50 +3197,53 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20200</v>
+        <v>11900</v>
       </c>
       <c r="E58" s="3">
-        <v>21800</v>
+        <v>19600</v>
       </c>
       <c r="F58" s="3">
-        <v>22900</v>
+        <v>21200</v>
       </c>
       <c r="G58" s="3">
-        <v>23100</v>
+        <v>22200</v>
       </c>
       <c r="H58" s="3">
-        <v>19100</v>
+        <v>22400</v>
       </c>
       <c r="I58" s="3">
-        <v>16100</v>
+        <v>18500</v>
       </c>
       <c r="J58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K58" s="3">
         <v>12300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,50 +3253,53 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="E59" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="F59" s="3">
-        <v>8600</v>
+        <v>4900</v>
       </c>
       <c r="G59" s="3">
-        <v>5500</v>
+        <v>8300</v>
       </c>
       <c r="H59" s="3">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="I59" s="3">
         <v>4000</v>
       </c>
       <c r="J59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,50 +3309,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39900</v>
+        <v>27000</v>
       </c>
       <c r="E60" s="3">
-        <v>46800</v>
+        <v>38700</v>
       </c>
       <c r="F60" s="3">
-        <v>44900</v>
+        <v>45400</v>
       </c>
       <c r="G60" s="3">
-        <v>47900</v>
+        <v>43500</v>
       </c>
       <c r="H60" s="3">
-        <v>38800</v>
+        <v>46400</v>
       </c>
       <c r="I60" s="3">
-        <v>40700</v>
+        <v>37600</v>
       </c>
       <c r="J60" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K60" s="3">
         <v>30800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>43800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,50 +3365,53 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17700</v>
+        <v>14200</v>
       </c>
       <c r="E61" s="3">
-        <v>26200</v>
+        <v>17100</v>
       </c>
       <c r="F61" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="G61" s="3">
-        <v>35700</v>
+        <v>24900</v>
       </c>
       <c r="H61" s="3">
-        <v>51500</v>
+        <v>34600</v>
       </c>
       <c r="I61" s="3">
-        <v>59000</v>
+        <v>49900</v>
       </c>
       <c r="J61" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K61" s="3">
         <v>71300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>76600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3278,49 +3421,52 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G62" s="3">
         <v>4600</v>
       </c>
-      <c r="E62" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5500</v>
-      </c>
       <c r="H62" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="I62" s="3">
-        <v>4400</v>
+        <v>5700</v>
       </c>
       <c r="J62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2500</v>
       </c>
       <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>2500</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3331,8 +3477,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,50 +3645,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69200</v>
+        <v>49900</v>
       </c>
       <c r="E66" s="3">
-        <v>84400</v>
+        <v>67000</v>
       </c>
       <c r="F66" s="3">
-        <v>82300</v>
+        <v>81800</v>
       </c>
       <c r="G66" s="3">
-        <v>96100</v>
+        <v>79800</v>
       </c>
       <c r="H66" s="3">
-        <v>103200</v>
+        <v>93100</v>
       </c>
       <c r="I66" s="3">
-        <v>111200</v>
+        <v>100000</v>
       </c>
       <c r="J66" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K66" s="3">
         <v>113400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>107300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>118400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>94300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3543,8 +3701,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3700,20 +3868,20 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>445400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>347000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>305700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>267900</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,50 +3947,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-414400</v>
+        <v>-411900</v>
       </c>
       <c r="E72" s="3">
-        <v>-412000</v>
+        <v>-401700</v>
       </c>
       <c r="F72" s="3">
-        <v>-410200</v>
+        <v>-399300</v>
       </c>
       <c r="G72" s="3">
-        <v>-407000</v>
+        <v>-397600</v>
       </c>
       <c r="H72" s="3">
-        <v>-403000</v>
+        <v>-394500</v>
       </c>
       <c r="I72" s="3">
-        <v>-396900</v>
+        <v>-390700</v>
       </c>
       <c r="J72" s="3">
+        <v>-384700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-391900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-378100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-413100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-310100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-315300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-303300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3829,8 +4003,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,50 +4171,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34500</v>
+        <v>24600</v>
       </c>
       <c r="E76" s="3">
-        <v>27800</v>
+        <v>33500</v>
       </c>
       <c r="F76" s="3">
-        <v>28300</v>
+        <v>26900</v>
       </c>
       <c r="G76" s="3">
-        <v>23200</v>
+        <v>27400</v>
       </c>
       <c r="H76" s="3">
-        <v>14300</v>
+        <v>22500</v>
       </c>
       <c r="I76" s="3">
-        <v>16500</v>
+        <v>13800</v>
       </c>
       <c r="J76" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K76" s="3">
         <v>11800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-471800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-322600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-328400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-301700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4041,8 +4227,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2400</v>
+        <v>-10200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1800</v>
+        <v>-4100</v>
       </c>
       <c r="F81" s="3">
-        <v>-3200</v>
+        <v>-1700</v>
       </c>
       <c r="G81" s="3">
-        <v>-4000</v>
+        <v>-3100</v>
       </c>
       <c r="H81" s="3">
-        <v>-6200</v>
+        <v>-3800</v>
       </c>
       <c r="I81" s="3">
-        <v>-5000</v>
+        <v>-6000</v>
       </c>
       <c r="J81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-48200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-72900</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,61 +4424,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4758,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-35200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-7900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,8 +4838,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4644,14 +4865,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>-200</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -4660,19 +4881,22 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,61 +5004,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,163 +5306,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>92200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>47900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>46200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>34600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>29000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>34100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
